--- a/1학년 명렬.xlsx
+++ b/1학년 명렬.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\2025\2025 공통수학 1,2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4011C507-0D7F-465B-8FE6-68728AFA9586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D67364-2771-47EA-8351-87A5A67A555E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B00AD6DE-A20E-46E4-ABDF-D07AB22AAC79}"/>
   </bookViews>
@@ -120,16 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>인원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>총원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -138,7 +129,7 @@
     <numFmt numFmtId="176" formatCode="0&quot;학&quot;&quot;년&quot;"/>
     <numFmt numFmtId="177" formatCode="0&quot;반&quot;"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,13 +137,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="HY견고딕"/>
-      <family val="1"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="8"/>
@@ -167,24 +151,6 @@
       <name val="굴림"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -207,18 +173,12 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -232,83 +192,13 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -540,127 +430,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1842,715 +1679,6 @@
         <row r="2">
           <cell r="A2">
             <v>101</v>
-          </cell>
-          <cell r="B2">
-            <v>1</v>
-          </cell>
-          <cell r="C2">
-            <v>1</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>서리화</v>
-          </cell>
-          <cell r="E2">
-            <v>27</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>102</v>
-          </cell>
-          <cell r="B3">
-            <v>1</v>
-          </cell>
-          <cell r="C3">
-            <v>2</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>어수진</v>
-          </cell>
-          <cell r="E3">
-            <v>27</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>103</v>
-          </cell>
-          <cell r="B4">
-            <v>1</v>
-          </cell>
-          <cell r="C4">
-            <v>3</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>김선주</v>
-          </cell>
-          <cell r="E4">
-            <v>27</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>104</v>
-          </cell>
-          <cell r="B5">
-            <v>1</v>
-          </cell>
-          <cell r="C5">
-            <v>4</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>김재학</v>
-          </cell>
-          <cell r="E5">
-            <v>29</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>105</v>
-          </cell>
-          <cell r="B6">
-            <v>1</v>
-          </cell>
-          <cell r="C6">
-            <v>5</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>박성민</v>
-          </cell>
-          <cell r="E6">
-            <v>29</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>106</v>
-          </cell>
-          <cell r="B7">
-            <v>1</v>
-          </cell>
-          <cell r="C7">
-            <v>6</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>박성진</v>
-          </cell>
-          <cell r="E7">
-            <v>29</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>107</v>
-          </cell>
-          <cell r="B8">
-            <v>1</v>
-          </cell>
-          <cell r="C8">
-            <v>7</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>하나은</v>
-          </cell>
-          <cell r="E8">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>108</v>
-          </cell>
-          <cell r="B9">
-            <v>1</v>
-          </cell>
-          <cell r="C9">
-            <v>8</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>함민정</v>
-          </cell>
-          <cell r="E9">
-            <v>29</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>109</v>
-          </cell>
-          <cell r="B10">
-            <v>1</v>
-          </cell>
-          <cell r="C10">
-            <v>9</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>홍임효</v>
-          </cell>
-          <cell r="E10">
-            <v>29</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>110</v>
-          </cell>
-          <cell r="B11">
-            <v>1</v>
-          </cell>
-          <cell r="C11">
-            <v>10</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>박새날</v>
-          </cell>
-          <cell r="E11">
-            <v>29</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>111</v>
-          </cell>
-          <cell r="B12">
-            <v>1</v>
-          </cell>
-          <cell r="C12">
-            <v>11</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>정민호</v>
-          </cell>
-          <cell r="E12">
-            <v>29</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>112</v>
-          </cell>
-          <cell r="B13">
-            <v>1</v>
-          </cell>
-          <cell r="C13">
-            <v>12</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>조미현</v>
-          </cell>
-          <cell r="E13">
-            <v>29</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>113</v>
-          </cell>
-          <cell r="B14">
-            <v>1</v>
-          </cell>
-          <cell r="C14">
-            <v>13</v>
-          </cell>
-          <cell r="D14" t="str">
-            <v>주상영</v>
-          </cell>
-          <cell r="E14">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>114</v>
-          </cell>
-          <cell r="B15">
-            <v>1</v>
-          </cell>
-          <cell r="C15">
-            <v>14</v>
-          </cell>
-          <cell r="D15" t="str">
-            <v>박지영</v>
-          </cell>
-          <cell r="E15">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>201</v>
-          </cell>
-          <cell r="B16">
-            <v>2</v>
-          </cell>
-          <cell r="C16">
-            <v>1</v>
-          </cell>
-          <cell r="D16" t="str">
-            <v>황미영</v>
-          </cell>
-          <cell r="E16">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>202</v>
-          </cell>
-          <cell r="B17">
-            <v>2</v>
-          </cell>
-          <cell r="C17">
-            <v>2</v>
-          </cell>
-          <cell r="D17" t="str">
-            <v>최단희</v>
-          </cell>
-          <cell r="E17">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>203</v>
-          </cell>
-          <cell r="B18">
-            <v>2</v>
-          </cell>
-          <cell r="C18">
-            <v>3</v>
-          </cell>
-          <cell r="D18" t="str">
-            <v>김명흠</v>
-          </cell>
-          <cell r="E18">
-            <v>29</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>204</v>
-          </cell>
-          <cell r="B19">
-            <v>2</v>
-          </cell>
-          <cell r="C19">
-            <v>4</v>
-          </cell>
-          <cell r="D19" t="str">
-            <v>손효정</v>
-          </cell>
-          <cell r="E19">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>205</v>
-          </cell>
-          <cell r="B20">
-            <v>2</v>
-          </cell>
-          <cell r="C20">
-            <v>5</v>
-          </cell>
-          <cell r="D20" t="str">
-            <v>하강용</v>
-          </cell>
-          <cell r="E20">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>206</v>
-          </cell>
-          <cell r="B21">
-            <v>2</v>
-          </cell>
-          <cell r="C21">
-            <v>6</v>
-          </cell>
-          <cell r="D21" t="str">
-            <v>윤영미</v>
-          </cell>
-          <cell r="E21">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>207</v>
-          </cell>
-          <cell r="B22">
-            <v>2</v>
-          </cell>
-          <cell r="C22">
-            <v>7</v>
-          </cell>
-          <cell r="D22" t="str">
-            <v>김지민</v>
-          </cell>
-          <cell r="E22">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>208</v>
-          </cell>
-          <cell r="B23">
-            <v>2</v>
-          </cell>
-          <cell r="C23">
-            <v>8</v>
-          </cell>
-          <cell r="D23" t="str">
-            <v>김나은</v>
-          </cell>
-          <cell r="E23">
-            <v>33</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>209</v>
-          </cell>
-          <cell r="B24">
-            <v>2</v>
-          </cell>
-          <cell r="C24">
-            <v>9</v>
-          </cell>
-          <cell r="D24" t="str">
-            <v>박보영</v>
-          </cell>
-          <cell r="E24">
-            <v>33</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>210</v>
-          </cell>
-          <cell r="B25">
-            <v>2</v>
-          </cell>
-          <cell r="C25">
-            <v>10</v>
-          </cell>
-          <cell r="D25" t="str">
-            <v>고유나</v>
-          </cell>
-          <cell r="E25">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>211</v>
-          </cell>
-          <cell r="B26">
-            <v>2</v>
-          </cell>
-          <cell r="C26">
-            <v>11</v>
-          </cell>
-          <cell r="D26" t="str">
-            <v>한유림</v>
-          </cell>
-          <cell r="E26">
-            <v>33</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>212</v>
-          </cell>
-          <cell r="B27">
-            <v>2</v>
-          </cell>
-          <cell r="C27">
-            <v>12</v>
-          </cell>
-          <cell r="D27" t="str">
-            <v>김범준</v>
-          </cell>
-          <cell r="E27">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>213</v>
-          </cell>
-          <cell r="B28">
-            <v>2</v>
-          </cell>
-          <cell r="C28">
-            <v>13</v>
-          </cell>
-          <cell r="D28" t="str">
-            <v>김근형</v>
-          </cell>
-          <cell r="E28">
-            <v>33</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>214</v>
-          </cell>
-          <cell r="B29">
-            <v>2</v>
-          </cell>
-          <cell r="C29">
-            <v>14</v>
-          </cell>
-          <cell r="D29" t="str">
-            <v>김병화</v>
-          </cell>
-          <cell r="E29">
-            <v>33</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>301</v>
-          </cell>
-          <cell r="B30">
-            <v>3</v>
-          </cell>
-          <cell r="C30">
-            <v>1</v>
-          </cell>
-          <cell r="D30" t="str">
-            <v>김경연</v>
-          </cell>
-          <cell r="E30">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>302</v>
-          </cell>
-          <cell r="B31">
-            <v>3</v>
-          </cell>
-          <cell r="C31">
-            <v>2</v>
-          </cell>
-          <cell r="D31" t="str">
-            <v>주소원</v>
-          </cell>
-          <cell r="E31">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>303</v>
-          </cell>
-          <cell r="B32">
-            <v>3</v>
-          </cell>
-          <cell r="C32">
-            <v>3</v>
-          </cell>
-          <cell r="D32" t="str">
-            <v>류경옥</v>
-          </cell>
-          <cell r="E32">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>304</v>
-          </cell>
-          <cell r="B33">
-            <v>3</v>
-          </cell>
-          <cell r="C33">
-            <v>4</v>
-          </cell>
-          <cell r="D33" t="str">
-            <v>양성원</v>
-          </cell>
-          <cell r="E33">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>305</v>
-          </cell>
-          <cell r="B34">
-            <v>3</v>
-          </cell>
-          <cell r="C34">
-            <v>5</v>
-          </cell>
-          <cell r="D34" t="str">
-            <v>장연희</v>
-          </cell>
-          <cell r="E34">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>306</v>
-          </cell>
-          <cell r="B35">
-            <v>3</v>
-          </cell>
-          <cell r="C35">
-            <v>6</v>
-          </cell>
-          <cell r="D35" t="str">
-            <v>최윤아</v>
-          </cell>
-          <cell r="E35">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>307</v>
-          </cell>
-          <cell r="B36">
-            <v>3</v>
-          </cell>
-          <cell r="C36">
-            <v>7</v>
-          </cell>
-          <cell r="D36" t="str">
-            <v>김혜정(영)</v>
-          </cell>
-          <cell r="E36">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>308</v>
-          </cell>
-          <cell r="B37">
-            <v>3</v>
-          </cell>
-          <cell r="C37">
-            <v>8</v>
-          </cell>
-          <cell r="D37" t="str">
-            <v>김기환</v>
-          </cell>
-          <cell r="E37">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>309</v>
-          </cell>
-          <cell r="B38">
-            <v>3</v>
-          </cell>
-          <cell r="C38">
-            <v>9</v>
-          </cell>
-          <cell r="D38" t="str">
-            <v>정해영</v>
-          </cell>
-          <cell r="E38">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>310</v>
-          </cell>
-          <cell r="B39">
-            <v>3</v>
-          </cell>
-          <cell r="C39">
-            <v>10</v>
-          </cell>
-          <cell r="D39" t="str">
-            <v>전혜란</v>
-          </cell>
-          <cell r="E39">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>311</v>
-          </cell>
-          <cell r="B40">
-            <v>3</v>
-          </cell>
-          <cell r="C40">
-            <v>11</v>
-          </cell>
-          <cell r="D40" t="str">
-            <v>한성유</v>
-          </cell>
-          <cell r="E40">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>312</v>
-          </cell>
-          <cell r="B41">
-            <v>3</v>
-          </cell>
-          <cell r="C41">
-            <v>12</v>
-          </cell>
-          <cell r="D41" t="str">
-            <v>염지선</v>
-          </cell>
-          <cell r="E41">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>313</v>
-          </cell>
-          <cell r="B42">
-            <v>3</v>
-          </cell>
-          <cell r="C42">
-            <v>13</v>
-          </cell>
-          <cell r="D42" t="str">
-            <v>서현정</v>
-          </cell>
-          <cell r="E42">
-            <v>33</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>314</v>
-          </cell>
-          <cell r="B43">
-            <v>3</v>
-          </cell>
-          <cell r="C43">
-            <v>14</v>
-          </cell>
-          <cell r="D43" t="str">
-            <v>김혜정(사)</v>
-          </cell>
-          <cell r="E43">
-            <v>33</v>
           </cell>
         </row>
       </sheetData>
@@ -37689,10 +36817,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:O36"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -37700,2363 +36828,2197 @@
     <col min="2" max="15" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="str">
-        <f>A2&amp;"학년 학생 전체 열람표"</f>
-        <v>1학년 학생 전체 열람표</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="4"/>
+    <row r="1" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="32">
+    <row r="2" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="6" t="str">
+        <f t="array" ref="B2">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A6),0)),"")</f>
+        <v>강준희</v>
+      </c>
+      <c r="C2" s="7" t="str">
+        <f t="array" ref="C2">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A6),0)),"")</f>
+        <v>고우성</v>
+      </c>
+      <c r="D2" s="7" t="str">
+        <f t="array" ref="D2">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A6),0)),"")</f>
+        <v>김동호</v>
+      </c>
+      <c r="E2" s="7" t="str">
+        <f t="array" ref="E2">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A6),0)),"")</f>
+        <v>권도빈</v>
+      </c>
+      <c r="F2" s="7" t="str">
+        <f t="array" ref="F2">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A6),0)),"")</f>
+        <v>고건우</v>
+      </c>
+      <c r="G2" s="7" t="str">
+        <f t="array" ref="G2">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A6),0)),"")</f>
+        <v>권준형</v>
+      </c>
+      <c r="H2" s="7" t="str">
+        <f t="array" ref="H2">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A6),0)),"")</f>
+        <v>기진우</v>
+      </c>
+      <c r="I2" s="7" t="str">
+        <f t="array" ref="I2">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A6),0)),"")</f>
+        <v>구호준</v>
+      </c>
+      <c r="J2" s="7" t="str">
+        <f t="array" ref="J2">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A6),0)),"")</f>
+        <v>강민준</v>
+      </c>
+      <c r="K2" s="7" t="str">
+        <f t="array" ref="K2">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A6),0)),"")</f>
+        <v>강동우</v>
+      </c>
+      <c r="L2" s="7" t="str">
+        <f t="array" ref="L2">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A6),0)),"")</f>
+        <v>강동훈</v>
+      </c>
+      <c r="M2" s="7" t="str">
+        <f t="array" ref="M2">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A6),0)),"")</f>
+        <v>강은수</v>
+      </c>
+      <c r="N2" s="7" t="str">
+        <f t="array" ref="N2">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A6),0)),"")</f>
+        <v>김민규</v>
+      </c>
+      <c r="O2" s="8" t="str">
+        <f t="array" ref="O2">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A6),0)),"")</f>
+        <v>고건령</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="D2" s="6">
+      <c r="B3" s="10" t="str">
+        <f t="array" ref="B3">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A7),0)),"")</f>
+        <v>곽용우</v>
+      </c>
+      <c r="C3" s="11" t="str">
+        <f t="array" ref="C3">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A7),0)),"")</f>
+        <v>구교윤</v>
+      </c>
+      <c r="D3" s="11" t="str">
+        <f t="array" ref="D3">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A7),0)),"")</f>
+        <v>김형서</v>
+      </c>
+      <c r="E3" s="11" t="str">
+        <f t="array" ref="E3">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A7),0)),"")</f>
+        <v>김단</v>
+      </c>
+      <c r="F3" s="11" t="str">
+        <f t="array" ref="F3">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A7),0)),"")</f>
+        <v>고성민</v>
+      </c>
+      <c r="G3" s="11" t="str">
+        <f t="array" ref="G3">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A7),0)),"")</f>
+        <v>김근호</v>
+      </c>
+      <c r="H3" s="11" t="str">
+        <f t="array" ref="H3">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A7),0)),"")</f>
+        <v>김동윤</v>
+      </c>
+      <c r="I3" s="11" t="str">
+        <f t="array" ref="I3">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A7),0)),"")</f>
+        <v>권민석</v>
+      </c>
+      <c r="J3" s="11" t="str">
+        <f t="array" ref="J3">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A7),0)),"")</f>
+        <v>고훈</v>
+      </c>
+      <c r="K3" s="11" t="str">
+        <f t="array" ref="K3">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A7),0)),"")</f>
+        <v>곽지성</v>
+      </c>
+      <c r="L3" s="11" t="str">
+        <f t="array" ref="L3">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A7),0)),"")</f>
+        <v>강민산</v>
+      </c>
+      <c r="M3" s="11" t="str">
+        <f t="array" ref="M3">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A7),0)),"")</f>
+        <v>김선규</v>
+      </c>
+      <c r="N3" s="11" t="str">
+        <f t="array" ref="N3">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A7),0)),"")</f>
+        <v>김민준</v>
+      </c>
+      <c r="O3" s="12" t="str">
+        <f t="array" ref="O3">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A7),0)),"")</f>
+        <v>고승우</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="E2" s="6">
+      <c r="B4" s="10" t="str">
+        <f t="array" ref="B4">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A8),0)),"")</f>
+        <v>김경준</v>
+      </c>
+      <c r="C4" s="11" t="str">
+        <f t="array" ref="C4">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A8),0)),"")</f>
+        <v>김경민</v>
+      </c>
+      <c r="D4" s="11" t="str">
+        <f t="array" ref="D4">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A8),0)),"")</f>
+        <v>박수찬</v>
+      </c>
+      <c r="E4" s="11" t="str">
+        <f t="array" ref="E4">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A8),0)),"")</f>
+        <v>김동건</v>
+      </c>
+      <c r="F4" s="11" t="str">
+        <f t="array" ref="F4">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A8),0)),"")</f>
+        <v>고종욱</v>
+      </c>
+      <c r="G4" s="11" t="str">
+        <f t="array" ref="G4">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A8),0)),"")</f>
+        <v>김남욱</v>
+      </c>
+      <c r="H4" s="11" t="str">
+        <f t="array" ref="H4">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A8),0)),"")</f>
+        <v>김시후</v>
+      </c>
+      <c r="I4" s="11" t="str">
+        <f t="array" ref="I4">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A8),0)),"")</f>
+        <v>김강준</v>
+      </c>
+      <c r="J4" s="11" t="str">
+        <f t="array" ref="J4">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A8),0)),"")</f>
+        <v>김도현</v>
+      </c>
+      <c r="K4" s="11" t="str">
+        <f t="array" ref="K4">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A8),0)),"")</f>
+        <v>김동진</v>
+      </c>
+      <c r="L4" s="11" t="str">
+        <f t="array" ref="L4">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A8),0)),"")</f>
+        <v>권도윤</v>
+      </c>
+      <c r="M4" s="11" t="str">
+        <f t="array" ref="M4">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A8),0)),"")</f>
+        <v>김용은</v>
+      </c>
+      <c r="N4" s="11" t="str">
+        <f t="array" ref="N4">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A8),0)),"")</f>
+        <v>김재율</v>
+      </c>
+      <c r="O4" s="12" t="str">
+        <f t="array" ref="O4">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A8),0)),"")</f>
+        <v>김리욱</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="F2" s="6">
+      <c r="B5" s="10" t="str">
+        <f t="array" ref="B5">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A9),0)),"")</f>
+        <v>김시호</v>
+      </c>
+      <c r="C5" s="11" t="str">
+        <f t="array" ref="C5">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A9),0)),"")</f>
+        <v>김도영</v>
+      </c>
+      <c r="D5" s="11" t="str">
+        <f t="array" ref="D5">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A9),0)),"")</f>
+        <v>박시윤</v>
+      </c>
+      <c r="E5" s="11" t="str">
+        <f t="array" ref="E5">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A9),0)),"")</f>
+        <v>김민세</v>
+      </c>
+      <c r="F5" s="11" t="str">
+        <f t="array" ref="F5">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A9),0)),"")</f>
+        <v>곽진욱</v>
+      </c>
+      <c r="G5" s="11" t="str">
+        <f t="array" ref="G5">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A9),0)),"")</f>
+        <v>김성찬</v>
+      </c>
+      <c r="H5" s="11" t="str">
+        <f t="array" ref="H5">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A9),0)),"")</f>
+        <v>김윤성</v>
+      </c>
+      <c r="I5" s="11" t="str">
+        <f t="array" ref="I5">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A9),0)),"")</f>
+        <v>김건우</v>
+      </c>
+      <c r="J5" s="11" t="str">
+        <f t="array" ref="J5">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A9),0)),"")</f>
+        <v>김이안</v>
+      </c>
+      <c r="K5" s="11" t="str">
+        <f t="array" ref="K5">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A9),0)),"")</f>
+        <v>김민준</v>
+      </c>
+      <c r="L5" s="11" t="str">
+        <f t="array" ref="L5">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A9),0)),"")</f>
+        <v>권호영</v>
+      </c>
+      <c r="M5" s="11" t="str">
+        <f t="array" ref="M5">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A9),0)),"")</f>
+        <v>김재민</v>
+      </c>
+      <c r="N5" s="11" t="str">
+        <f t="array" ref="N5">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A9),0)),"")</f>
+        <v>김제희</v>
+      </c>
+      <c r="O5" s="12" t="str">
+        <f t="array" ref="O5">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A9),0)),"")</f>
+        <v>김성윤</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="G2" s="6">
-        <v>6</v>
-      </c>
-      <c r="H2" s="6">
-        <v>7</v>
-      </c>
-      <c r="I2" s="6">
-        <v>8</v>
-      </c>
-      <c r="J2" s="6">
-        <v>9</v>
-      </c>
-      <c r="K2" s="6">
-        <v>10</v>
-      </c>
-      <c r="L2" s="6">
-        <v>11</v>
-      </c>
-      <c r="M2" s="6">
-        <v>12</v>
-      </c>
-      <c r="N2" s="6">
-        <v>13</v>
-      </c>
-      <c r="O2" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="8" t="str">
-        <f>VLOOKUP($A$2*100+B2,[2]학급담임!$A$2:$D$43, 4,0)</f>
-        <v>서리화</v>
-      </c>
-      <c r="C3" s="9" t="str">
-        <f>VLOOKUP($A$2*100+C2,[2]학급담임!$A$2:$D$43, 4,0)</f>
-        <v>어수진</v>
-      </c>
-      <c r="D3" s="9" t="str">
-        <f>VLOOKUP($A$2*100+D2,[2]학급담임!$A$2:$D$43, 4,0)</f>
-        <v>김선주</v>
-      </c>
-      <c r="E3" s="9" t="str">
-        <f>VLOOKUP($A$2*100+E2,[2]학급담임!$A$2:$D$43, 4,0)</f>
-        <v>김재학</v>
-      </c>
-      <c r="F3" s="9" t="str">
-        <f>VLOOKUP($A$2*100+F2,[2]학급담임!$A$2:$D$43, 4,0)</f>
-        <v>박성민</v>
-      </c>
-      <c r="G3" s="9" t="str">
-        <f>VLOOKUP($A$2*100+G2,[2]학급담임!$A$2:$D$43, 4,0)</f>
-        <v>박성진</v>
-      </c>
-      <c r="H3" s="9" t="str">
-        <f>VLOOKUP($A$2*100+H2,[2]학급담임!$A$2:$D$43, 4,0)</f>
-        <v>하나은</v>
-      </c>
-      <c r="I3" s="9" t="str">
-        <f>VLOOKUP($A$2*100+I2,[2]학급담임!$A$2:$D$43, 4,0)</f>
-        <v>함민정</v>
-      </c>
-      <c r="J3" s="9" t="str">
-        <f>VLOOKUP($A$2*100+J2,[2]학급담임!$A$2:$D$43, 4,0)</f>
-        <v>홍임효</v>
-      </c>
-      <c r="K3" s="9" t="str">
-        <f>VLOOKUP($A$2*100+K2,[2]학급담임!$A$2:$D$43, 4,0)</f>
-        <v>박새날</v>
-      </c>
-      <c r="L3" s="9" t="str">
-        <f>VLOOKUP($A$2*100+L2,[2]학급담임!$A$2:$D$43, 4,0)</f>
-        <v>정민호</v>
-      </c>
-      <c r="M3" s="9" t="str">
-        <f>VLOOKUP($A$2*100+M2,[2]학급담임!$A$2:$D$43, 4,0)</f>
-        <v>조미현</v>
-      </c>
-      <c r="N3" s="9" t="str">
-        <f>VLOOKUP($A$2*100+N2,[2]학급담임!$A$2:$D$43, 4,0)</f>
-        <v>주상영</v>
-      </c>
-      <c r="O3" s="10" t="str">
-        <f>VLOOKUP($A$2*100+O2,[2]학급담임!$A$2:$D$43, 4,0)</f>
-        <v>박지영</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="12">
-        <f>VLOOKUP($A$2*100+B2,[2]학급담임!$A$2:$E$43, 5,0)</f>
-        <v>27</v>
-      </c>
-      <c r="C4" s="13">
-        <f>VLOOKUP($A$2*100+C2,[2]학급담임!$A$2:$E$43, 5,0)</f>
-        <v>27</v>
-      </c>
-      <c r="D4" s="13">
-        <f>VLOOKUP($A$2*100+D2,[2]학급담임!$A$2:$E$43, 5,0)</f>
-        <v>27</v>
-      </c>
-      <c r="E4" s="13">
-        <f>VLOOKUP($A$2*100+E2,[2]학급담임!$A$2:$E$43, 5,0)</f>
-        <v>29</v>
-      </c>
-      <c r="F4" s="13">
-        <f>VLOOKUP($A$2*100+F2,[2]학급담임!$A$2:$E$43, 5,0)</f>
-        <v>29</v>
-      </c>
-      <c r="G4" s="13">
-        <f>VLOOKUP($A$2*100+G2,[2]학급담임!$A$2:$E$43, 5,0)</f>
-        <v>29</v>
-      </c>
-      <c r="H4" s="13">
-        <f>VLOOKUP($A$2*100+H2,[2]학급담임!$A$2:$E$43, 5,0)</f>
-        <v>28</v>
-      </c>
-      <c r="I4" s="13">
-        <f>VLOOKUP($A$2*100+I2,[2]학급담임!$A$2:$E$43, 5,0)</f>
-        <v>29</v>
-      </c>
-      <c r="J4" s="13">
-        <f>VLOOKUP($A$2*100+J2,[2]학급담임!$A$2:$E$43, 5,0)</f>
-        <v>29</v>
-      </c>
-      <c r="K4" s="13">
-        <f>VLOOKUP($A$2*100+K2,[2]학급담임!$A$2:$E$43, 5,0)</f>
-        <v>29</v>
-      </c>
-      <c r="L4" s="13">
-        <f>VLOOKUP($A$2*100+L2,[2]학급담임!$A$2:$E$43, 5,0)</f>
-        <v>29</v>
-      </c>
-      <c r="M4" s="13">
-        <f>VLOOKUP($A$2*100+M2,[2]학급담임!$A$2:$E$43, 5,0)</f>
-        <v>29</v>
-      </c>
-      <c r="N4" s="13">
-        <f>VLOOKUP($A$2*100+N2,[2]학급담임!$A$2:$E$43, 5,0)</f>
-        <v>28</v>
-      </c>
-      <c r="O4" s="14">
-        <f>VLOOKUP($A$2*100+O2,[2]학급담임!$A$2:$E$43, 5,0)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="34" t="str">
-        <f>SUM(B4:O4)&amp;"명"</f>
-        <v>397명</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="36"/>
-    </row>
-    <row r="6" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
-        <v>1</v>
-      </c>
-      <c r="B6" s="17" t="str">
-        <f t="array" ref="B6">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A6),0)),"")</f>
-        <v>강준희</v>
-      </c>
-      <c r="C6" s="18" t="str">
-        <f t="array" ref="C6">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A6),0)),"")</f>
-        <v>고우성</v>
-      </c>
-      <c r="D6" s="18" t="str">
-        <f t="array" ref="D6">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A6),0)),"")</f>
-        <v>김동호</v>
-      </c>
-      <c r="E6" s="18" t="str">
-        <f t="array" ref="E6">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A6),0)),"")</f>
-        <v>권도빈</v>
-      </c>
-      <c r="F6" s="18" t="str">
-        <f t="array" ref="F6">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A6),0)),"")</f>
-        <v>고건우</v>
-      </c>
-      <c r="G6" s="18" t="str">
-        <f t="array" ref="G6">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A6),0)),"")</f>
-        <v>권준형</v>
-      </c>
-      <c r="H6" s="18" t="str">
-        <f t="array" ref="H6">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A6),0)),"")</f>
-        <v>기진우</v>
-      </c>
-      <c r="I6" s="18" t="str">
-        <f t="array" ref="I6">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A6),0)),"")</f>
-        <v>구호준</v>
-      </c>
-      <c r="J6" s="18" t="str">
-        <f t="array" ref="J6">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A6),0)),"")</f>
-        <v>강민준</v>
-      </c>
-      <c r="K6" s="18" t="str">
-        <f t="array" ref="K6">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A6),0)),"")</f>
-        <v>강동우</v>
-      </c>
-      <c r="L6" s="18" t="str">
-        <f t="array" ref="L6">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A6),0)),"")</f>
-        <v>강동훈</v>
-      </c>
-      <c r="M6" s="18" t="str">
-        <f t="array" ref="M6">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A6),0)),"")</f>
-        <v>강은수</v>
-      </c>
-      <c r="N6" s="18" t="str">
-        <f t="array" ref="N6">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A6),0)),"")</f>
-        <v>김민규</v>
-      </c>
-      <c r="O6" s="19" t="str">
-        <f t="array" ref="O6">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A6),0)),"")</f>
-        <v>고건령</v>
+      <c r="B6" s="14" t="str">
+        <f t="array" ref="B6">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A10),0)),"")</f>
+        <v>김예승</v>
+      </c>
+      <c r="C6" s="15" t="str">
+        <f t="array" ref="C6">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A10),0)),"")</f>
+        <v>김민건</v>
+      </c>
+      <c r="D6" s="15" t="str">
+        <f t="array" ref="D6">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A10),0)),"")</f>
+        <v>박윤후</v>
+      </c>
+      <c r="E6" s="15" t="str">
+        <f t="array" ref="E6">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A10),0)),"")</f>
+        <v>김민준</v>
+      </c>
+      <c r="F6" s="15" t="str">
+        <f t="array" ref="F6">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A10),0)),"")</f>
+        <v>구재희</v>
+      </c>
+      <c r="G6" s="15" t="str">
+        <f t="array" ref="G6">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A10),0)),"")</f>
+        <v>김시헌</v>
+      </c>
+      <c r="H6" s="15" t="str">
+        <f t="array" ref="H6">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A10),0)),"")</f>
+        <v>김준하</v>
+      </c>
+      <c r="I6" s="15" t="str">
+        <f t="array" ref="I6">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A10),0)),"")</f>
+        <v>김세연</v>
+      </c>
+      <c r="J6" s="15" t="str">
+        <f t="array" ref="J6">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A10),0)),"")</f>
+        <v>김지운</v>
+      </c>
+      <c r="K6" s="15" t="str">
+        <f t="array" ref="K6">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A10),0)),"")</f>
+        <v>김보성</v>
+      </c>
+      <c r="L6" s="15" t="str">
+        <f t="array" ref="L6">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A10),0)),"")</f>
+        <v>김민하</v>
+      </c>
+      <c r="M6" s="15" t="str">
+        <f t="array" ref="M6">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A10),0)),"")</f>
+        <v>김종현</v>
+      </c>
+      <c r="N6" s="15" t="str">
+        <f t="array" ref="N6">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A10),0)),"")</f>
+        <v>김진우</v>
+      </c>
+      <c r="O6" s="16" t="str">
+        <f t="array" ref="O6">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A10),0)),"")</f>
+        <v>김용민</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20">
-        <v>2</v>
-      </c>
-      <c r="B7" s="21" t="str">
-        <f t="array" ref="B7">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A7),0)),"")</f>
-        <v>곽용우</v>
-      </c>
-      <c r="C7" s="22" t="str">
-        <f t="array" ref="C7">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A7),0)),"")</f>
-        <v>구교윤</v>
-      </c>
-      <c r="D7" s="22" t="str">
-        <f t="array" ref="D7">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A7),0)),"")</f>
-        <v>김형서</v>
-      </c>
-      <c r="E7" s="22" t="str">
-        <f t="array" ref="E7">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A7),0)),"")</f>
-        <v>김단</v>
-      </c>
-      <c r="F7" s="22" t="str">
-        <f t="array" ref="F7">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A7),0)),"")</f>
-        <v>고성민</v>
-      </c>
-      <c r="G7" s="22" t="str">
-        <f t="array" ref="G7">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A7),0)),"")</f>
-        <v>김근호</v>
-      </c>
-      <c r="H7" s="22" t="str">
-        <f t="array" ref="H7">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A7),0)),"")</f>
-        <v>김동윤</v>
-      </c>
-      <c r="I7" s="22" t="str">
-        <f t="array" ref="I7">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A7),0)),"")</f>
-        <v>권민석</v>
-      </c>
-      <c r="J7" s="22" t="str">
-        <f t="array" ref="J7">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A7),0)),"")</f>
-        <v>고훈</v>
-      </c>
-      <c r="K7" s="22" t="str">
-        <f t="array" ref="K7">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A7),0)),"")</f>
-        <v>곽지성</v>
-      </c>
-      <c r="L7" s="22" t="str">
-        <f t="array" ref="L7">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A7),0)),"")</f>
-        <v>강민산</v>
-      </c>
-      <c r="M7" s="22" t="str">
-        <f t="array" ref="M7">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A7),0)),"")</f>
-        <v>김선규</v>
-      </c>
-      <c r="N7" s="22" t="str">
-        <f t="array" ref="N7">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A7),0)),"")</f>
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="str">
+        <f t="array" ref="B7">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A11),0)),"")</f>
+        <v>김주원</v>
+      </c>
+      <c r="C7" s="7" t="str">
+        <f t="array" ref="C7">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A11),0)),"")</f>
         <v>김민준</v>
       </c>
-      <c r="O7" s="23" t="str">
-        <f t="array" ref="O7">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A7),0)),"")</f>
-        <v>고승우</v>
+      <c r="D7" s="7" t="str">
+        <f t="array" ref="D7">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A11),0)),"")</f>
+        <v>박태웅</v>
+      </c>
+      <c r="E7" s="7" t="str">
+        <f t="array" ref="E7">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A11),0)),"")</f>
+        <v>김태호</v>
+      </c>
+      <c r="F7" s="7" t="str">
+        <f t="array" ref="F7">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A11),0)),"")</f>
+        <v>권기정</v>
+      </c>
+      <c r="G7" s="7" t="str">
+        <f t="array" ref="G7">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A11),0)),"")</f>
+        <v>김시후</v>
+      </c>
+      <c r="H7" s="7" t="str">
+        <f t="array" ref="H7">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A11),0)),"")</f>
+        <v>김준혁</v>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f t="array" ref="I7">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A11),0)),"")</f>
+        <v>문혜준</v>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f t="array" ref="J7">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A11),0)),"")</f>
+        <v>김현서</v>
+      </c>
+      <c r="K7" s="7" t="str">
+        <f t="array" ref="K7">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A11),0)),"")</f>
+        <v>김성윤</v>
+      </c>
+      <c r="L7" s="7" t="str">
+        <f t="array" ref="L7">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A11),0)),"")</f>
+        <v>김선웅</v>
+      </c>
+      <c r="M7" s="7" t="str">
+        <f t="array" ref="M7">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A11),0)),"")</f>
+        <v>김지수</v>
+      </c>
+      <c r="N7" s="7" t="str">
+        <f t="array" ref="N7">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A11),0)),"")</f>
+        <v>김태준</v>
+      </c>
+      <c r="O7" s="8" t="str">
+        <f t="array" ref="O7">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A11),0)),"")</f>
+        <v>김정우</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20">
-        <v>3</v>
-      </c>
-      <c r="B8" s="21" t="str">
-        <f t="array" ref="B8">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A8),0)),"")</f>
-        <v>김경준</v>
-      </c>
-      <c r="C8" s="22" t="str">
-        <f t="array" ref="C8">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A8),0)),"")</f>
-        <v>김경민</v>
-      </c>
-      <c r="D8" s="22" t="str">
-        <f t="array" ref="D8">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A8),0)),"")</f>
-        <v>박수찬</v>
-      </c>
-      <c r="E8" s="22" t="str">
-        <f t="array" ref="E8">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A8),0)),"")</f>
-        <v>김동건</v>
-      </c>
-      <c r="F8" s="22" t="str">
-        <f t="array" ref="F8">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A8),0)),"")</f>
-        <v>고종욱</v>
-      </c>
-      <c r="G8" s="22" t="str">
-        <f t="array" ref="G8">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A8),0)),"")</f>
-        <v>김남욱</v>
-      </c>
-      <c r="H8" s="22" t="str">
-        <f t="array" ref="H8">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A8),0)),"")</f>
-        <v>김시후</v>
-      </c>
-      <c r="I8" s="22" t="str">
-        <f t="array" ref="I8">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A8),0)),"")</f>
-        <v>김강준</v>
-      </c>
-      <c r="J8" s="22" t="str">
-        <f t="array" ref="J8">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A8),0)),"")</f>
-        <v>김도현</v>
-      </c>
-      <c r="K8" s="22" t="str">
-        <f t="array" ref="K8">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A8),0)),"")</f>
-        <v>김동진</v>
-      </c>
-      <c r="L8" s="22" t="str">
-        <f t="array" ref="L8">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A8),0)),"")</f>
-        <v>권도윤</v>
-      </c>
-      <c r="M8" s="22" t="str">
-        <f t="array" ref="M8">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A8),0)),"")</f>
-        <v>김용은</v>
-      </c>
-      <c r="N8" s="22" t="str">
-        <f t="array" ref="N8">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A8),0)),"")</f>
-        <v>김재율</v>
-      </c>
-      <c r="O8" s="23" t="str">
-        <f t="array" ref="O8">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A8),0)),"")</f>
-        <v>김리욱</v>
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="str">
+        <f t="array" ref="B8">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A12),0)),"")</f>
+        <v>김지헌</v>
+      </c>
+      <c r="C8" s="11" t="str">
+        <f t="array" ref="C8">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A12),0)),"")</f>
+        <v>김상훈</v>
+      </c>
+      <c r="D8" s="11" t="str">
+        <f t="array" ref="D8">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A12),0)),"")</f>
+        <v>배진우</v>
+      </c>
+      <c r="E8" s="11" t="str">
+        <f t="array" ref="E8">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A12),0)),"")</f>
+        <v>김택경</v>
+      </c>
+      <c r="F8" s="11" t="str">
+        <f t="array" ref="F8">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A12),0)),"")</f>
+        <v>권보성</v>
+      </c>
+      <c r="G8" s="11" t="str">
+        <f t="array" ref="G8">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A12),0)),"")</f>
+        <v>김진서</v>
+      </c>
+      <c r="H8" s="11" t="str">
+        <f t="array" ref="H8">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A12),0)),"")</f>
+        <v>김지율</v>
+      </c>
+      <c r="I8" s="11" t="str">
+        <f t="array" ref="I8">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A12),0)),"")</f>
+        <v>박경민</v>
+      </c>
+      <c r="J8" s="11" t="str">
+        <f t="array" ref="J8">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A12),0)),"")</f>
+        <v>김효준</v>
+      </c>
+      <c r="K8" s="11" t="str">
+        <f t="array" ref="K8">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A12),0)),"")</f>
+        <v>김승현</v>
+      </c>
+      <c r="L8" s="11" t="str">
+        <f t="array" ref="L8">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A12),0)),"")</f>
+        <v>김선재</v>
+      </c>
+      <c r="M8" s="11" t="str">
+        <f t="array" ref="M8">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A12),0)),"")</f>
+        <v>노성찬</v>
+      </c>
+      <c r="N8" s="11" t="str">
+        <f t="array" ref="N8">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A12),0)),"")</f>
+        <v>김태현</v>
+      </c>
+      <c r="O8" s="12" t="str">
+        <f t="array" ref="O8">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A12),0)),"")</f>
+        <v>김현중</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20">
-        <v>4</v>
-      </c>
-      <c r="B9" s="21" t="str">
-        <f t="array" ref="B9">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A9),0)),"")</f>
-        <v>김시호</v>
-      </c>
-      <c r="C9" s="22" t="str">
-        <f t="array" ref="C9">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A9),0)),"")</f>
-        <v>김도영</v>
-      </c>
-      <c r="D9" s="22" t="str">
-        <f t="array" ref="D9">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A9),0)),"")</f>
-        <v>박시윤</v>
-      </c>
-      <c r="E9" s="22" t="str">
-        <f t="array" ref="E9">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A9),0)),"")</f>
-        <v>김민세</v>
-      </c>
-      <c r="F9" s="22" t="str">
-        <f t="array" ref="F9">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A9),0)),"")</f>
-        <v>곽진욱</v>
-      </c>
-      <c r="G9" s="22" t="str">
-        <f t="array" ref="G9">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A9),0)),"")</f>
-        <v>김성찬</v>
-      </c>
-      <c r="H9" s="22" t="str">
-        <f t="array" ref="H9">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A9),0)),"")</f>
-        <v>김윤성</v>
-      </c>
-      <c r="I9" s="22" t="str">
-        <f t="array" ref="I9">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A9),0)),"")</f>
-        <v>김건우</v>
-      </c>
-      <c r="J9" s="22" t="str">
-        <f t="array" ref="J9">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A9),0)),"")</f>
-        <v>김이안</v>
-      </c>
-      <c r="K9" s="22" t="str">
-        <f t="array" ref="K9">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A9),0)),"")</f>
-        <v>김민준</v>
-      </c>
-      <c r="L9" s="22" t="str">
-        <f t="array" ref="L9">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A9),0)),"")</f>
-        <v>권호영</v>
-      </c>
-      <c r="M9" s="22" t="str">
-        <f t="array" ref="M9">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A9),0)),"")</f>
-        <v>김재민</v>
-      </c>
-      <c r="N9" s="22" t="str">
-        <f t="array" ref="N9">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A9),0)),"")</f>
-        <v>김제희</v>
-      </c>
-      <c r="O9" s="23" t="str">
-        <f t="array" ref="O9">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A9),0)),"")</f>
-        <v>김성윤</v>
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="str">
+        <f t="array" ref="B9">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A13),0)),"")</f>
+        <v>김휘영</v>
+      </c>
+      <c r="C9" s="11" t="str">
+        <f t="array" ref="C9">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A13),0)),"")</f>
+        <v>김수겸</v>
+      </c>
+      <c r="D9" s="11" t="str">
+        <f t="array" ref="D9">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A13),0)),"")</f>
+        <v>석정환</v>
+      </c>
+      <c r="E9" s="11" t="str">
+        <f t="array" ref="E9">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A13),0)),"")</f>
+        <v>김호겸</v>
+      </c>
+      <c r="F9" s="11" t="str">
+        <f t="array" ref="F9">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A13),0)),"")</f>
+        <v>김유찬</v>
+      </c>
+      <c r="G9" s="11" t="str">
+        <f t="array" ref="G9">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A13),0)),"")</f>
+        <v>김진형</v>
+      </c>
+      <c r="H9" s="11" t="str">
+        <f t="array" ref="H9">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A13),0)),"")</f>
+        <v>박세영</v>
+      </c>
+      <c r="I9" s="11" t="str">
+        <f t="array" ref="I9">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A13),0)),"")</f>
+        <v>박민성</v>
+      </c>
+      <c r="J9" s="11" t="str">
+        <f t="array" ref="J9">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A13),0)),"")</f>
+        <v>명시원</v>
+      </c>
+      <c r="K9" s="11" t="str">
+        <f t="array" ref="K9">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A13),0)),"")</f>
+        <v>김시윤</v>
+      </c>
+      <c r="L9" s="11" t="str">
+        <f t="array" ref="L9">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A13),0)),"")</f>
+        <v>김시율</v>
+      </c>
+      <c r="M9" s="11" t="str">
+        <f t="array" ref="M9">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A13),0)),"")</f>
+        <v>노영진</v>
+      </c>
+      <c r="N9" s="11" t="str">
+        <f t="array" ref="N9">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A13),0)),"")</f>
+        <v>라하주</v>
+      </c>
+      <c r="O9" s="12" t="str">
+        <f t="array" ref="O9">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A13),0)),"")</f>
+        <v>민승준</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="24">
-        <v>5</v>
-      </c>
-      <c r="B10" s="25" t="str">
-        <f t="array" ref="B10">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A10),0)),"")</f>
-        <v>김예승</v>
-      </c>
-      <c r="C10" s="26" t="str">
-        <f t="array" ref="C10">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A10),0)),"")</f>
-        <v>김민건</v>
-      </c>
-      <c r="D10" s="26" t="str">
-        <f t="array" ref="D10">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A10),0)),"")</f>
-        <v>박윤후</v>
-      </c>
-      <c r="E10" s="26" t="str">
-        <f t="array" ref="E10">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A10),0)),"")</f>
-        <v>김민준</v>
-      </c>
-      <c r="F10" s="26" t="str">
-        <f t="array" ref="F10">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A10),0)),"")</f>
-        <v>구재희</v>
-      </c>
-      <c r="G10" s="26" t="str">
-        <f t="array" ref="G10">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A10),0)),"")</f>
-        <v>김시헌</v>
-      </c>
-      <c r="H10" s="26" t="str">
-        <f t="array" ref="H10">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A10),0)),"")</f>
-        <v>김준하</v>
-      </c>
-      <c r="I10" s="26" t="str">
-        <f t="array" ref="I10">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A10),0)),"")</f>
-        <v>김세연</v>
-      </c>
-      <c r="J10" s="26" t="str">
-        <f t="array" ref="J10">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A10),0)),"")</f>
-        <v>김지운</v>
-      </c>
-      <c r="K10" s="26" t="str">
-        <f t="array" ref="K10">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A10),0)),"")</f>
-        <v>김보성</v>
-      </c>
-      <c r="L10" s="26" t="str">
-        <f t="array" ref="L10">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A10),0)),"")</f>
-        <v>김민하</v>
-      </c>
-      <c r="M10" s="26" t="str">
-        <f t="array" ref="M10">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A10),0)),"")</f>
-        <v>김종현</v>
-      </c>
-      <c r="N10" s="26" t="str">
-        <f t="array" ref="N10">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A10),0)),"")</f>
-        <v>김진우</v>
-      </c>
-      <c r="O10" s="27" t="str">
-        <f t="array" ref="O10">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A10),0)),"")</f>
-        <v>김용민</v>
+    <row r="10" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="str">
+        <f t="array" ref="B10">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A14),0)),"")</f>
+        <v>문준호</v>
+      </c>
+      <c r="C10" s="11" t="str">
+        <f t="array" ref="C10">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A14),0)),"")</f>
+        <v>김태윤</v>
+      </c>
+      <c r="D10" s="11" t="str">
+        <f t="array" ref="D10">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A14),0)),"")</f>
+        <v>성지후</v>
+      </c>
+      <c r="E10" s="11" t="str">
+        <f t="array" ref="E10">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A14),0)),"")</f>
+        <v>류혁인</v>
+      </c>
+      <c r="F10" s="11" t="str">
+        <f t="array" ref="F10">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A14),0)),"")</f>
+        <v>김태헌</v>
+      </c>
+      <c r="G10" s="11" t="str">
+        <f t="array" ref="G10">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A14),0)),"")</f>
+        <v>나건호</v>
+      </c>
+      <c r="H10" s="11" t="str">
+        <f t="array" ref="H10">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A14),0)),"")</f>
+        <v>박우원</v>
+      </c>
+      <c r="I10" s="11" t="str">
+        <f t="array" ref="I10">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A14),0)),"")</f>
+        <v>박성현</v>
+      </c>
+      <c r="J10" s="11" t="str">
+        <f t="array" ref="J10">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A14),0)),"")</f>
+        <v>문성규</v>
+      </c>
+      <c r="K10" s="11" t="str">
+        <f t="array" ref="K10">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A14),0)),"")</f>
+        <v>김재환</v>
+      </c>
+      <c r="L10" s="11" t="str">
+        <f t="array" ref="L10">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A14),0)),"")</f>
+        <v>김영서</v>
+      </c>
+      <c r="M10" s="11" t="str">
+        <f t="array" ref="M10">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A14),0)),"")</f>
+        <v>박신우</v>
+      </c>
+      <c r="N10" s="11" t="str">
+        <f t="array" ref="N10">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A14),0)),"")</f>
+        <v>박율민</v>
+      </c>
+      <c r="O10" s="12" t="str">
+        <f t="array" ref="O10">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A14),0)),"")</f>
+        <v>박성익</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
-        <v>6</v>
-      </c>
-      <c r="B11" s="17" t="str">
-        <f t="array" ref="B11">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A11),0)),"")</f>
-        <v>김주원</v>
-      </c>
-      <c r="C11" s="18" t="str">
-        <f t="array" ref="C11">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A11),0)),"")</f>
-        <v>김민준</v>
-      </c>
-      <c r="D11" s="18" t="str">
-        <f t="array" ref="D11">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A11),0)),"")</f>
-        <v>박태웅</v>
-      </c>
-      <c r="E11" s="18" t="str">
-        <f t="array" ref="E11">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A11),0)),"")</f>
-        <v>김태호</v>
-      </c>
-      <c r="F11" s="18" t="str">
-        <f t="array" ref="F11">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A11),0)),"")</f>
-        <v>권기정</v>
-      </c>
-      <c r="G11" s="18" t="str">
-        <f t="array" ref="G11">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A11),0)),"")</f>
-        <v>김시후</v>
-      </c>
-      <c r="H11" s="18" t="str">
-        <f t="array" ref="H11">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A11),0)),"")</f>
-        <v>김준혁</v>
-      </c>
-      <c r="I11" s="18" t="str">
-        <f t="array" ref="I11">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A11),0)),"")</f>
-        <v>문혜준</v>
-      </c>
-      <c r="J11" s="18" t="str">
-        <f t="array" ref="J11">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A11),0)),"")</f>
-        <v>김현서</v>
-      </c>
-      <c r="K11" s="18" t="str">
-        <f t="array" ref="K11">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A11),0)),"")</f>
-        <v>김성윤</v>
-      </c>
-      <c r="L11" s="18" t="str">
-        <f t="array" ref="L11">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A11),0)),"")</f>
-        <v>김선웅</v>
-      </c>
-      <c r="M11" s="18" t="str">
-        <f t="array" ref="M11">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A11),0)),"")</f>
-        <v>김지수</v>
-      </c>
-      <c r="N11" s="18" t="str">
-        <f t="array" ref="N11">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A11),0)),"")</f>
-        <v>김태준</v>
-      </c>
-      <c r="O11" s="19" t="str">
-        <f t="array" ref="O11">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A11),0)),"")</f>
-        <v>김정우</v>
+    <row r="11" spans="1:15" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="str">
+        <f t="array" ref="B11">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A15),0)),"")</f>
+        <v>박주혁</v>
+      </c>
+      <c r="C11" s="15" t="str">
+        <f t="array" ref="C11">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A15),0)),"")</f>
+        <v>박건민</v>
+      </c>
+      <c r="D11" s="15" t="str">
+        <f t="array" ref="D11">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A15),0)),"")</f>
+        <v>손성운</v>
+      </c>
+      <c r="E11" s="15" t="str">
+        <f t="array" ref="E11">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A15),0)),"")</f>
+        <v>박문찬</v>
+      </c>
+      <c r="F11" s="15" t="str">
+        <f t="array" ref="F11">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A15),0)),"")</f>
+        <v>김현승</v>
+      </c>
+      <c r="G11" s="15" t="str">
+        <f t="array" ref="G11">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A15),0)),"")</f>
+        <v>나도율</v>
+      </c>
+      <c r="H11" s="15" t="str">
+        <f t="array" ref="H11">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A15),0)),"")</f>
+        <v>박철민</v>
+      </c>
+      <c r="I11" s="15" t="str">
+        <f t="array" ref="I11">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A15),0)),"")</f>
+        <v>박찬빈</v>
+      </c>
+      <c r="J11" s="15" t="str">
+        <f t="array" ref="J11">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A15),0)),"")</f>
+        <v>박승민</v>
+      </c>
+      <c r="K11" s="15" t="str">
+        <f t="array" ref="K11">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A15),0)),"")</f>
+        <v>김준휘</v>
+      </c>
+      <c r="L11" s="15" t="str">
+        <f t="array" ref="L11">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A15),0)),"")</f>
+        <v>김종탁</v>
+      </c>
+      <c r="M11" s="15" t="str">
+        <f t="array" ref="M11">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A15),0)),"")</f>
+        <v>방지용</v>
+      </c>
+      <c r="N11" s="15" t="str">
+        <f t="array" ref="N11">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A15),0)),"")</f>
+        <v>박준우</v>
+      </c>
+      <c r="O11" s="16" t="str">
+        <f t="array" ref="O11">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A15),0)),"")</f>
+        <v>박성혁</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20">
-        <v>7</v>
-      </c>
-      <c r="B12" s="21" t="str">
-        <f t="array" ref="B12">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A12),0)),"")</f>
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="str">
+        <f t="array" ref="B12">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A16),0)),"")</f>
+        <v>백찬우</v>
+      </c>
+      <c r="C12" s="7" t="str">
+        <f t="array" ref="C12">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A16),0)),"")</f>
+        <v>박기덕</v>
+      </c>
+      <c r="D12" s="7" t="str">
+        <f t="array" ref="D12">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A16),0)),"")</f>
+        <v>신동민</v>
+      </c>
+      <c r="E12" s="7" t="str">
+        <f t="array" ref="E12">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A16),0)),"")</f>
+        <v>박준영</v>
+      </c>
+      <c r="F12" s="7" t="str">
+        <f t="array" ref="F12">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A16),0)),"")</f>
+        <v>박시언</v>
+      </c>
+      <c r="G12" s="7" t="str">
+        <f t="array" ref="G12">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A16),0)),"")</f>
+        <v>류의환</v>
+      </c>
+      <c r="H12" s="7" t="str">
+        <f t="array" ref="H12">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A16),0)),"")</f>
+        <v>백승재</v>
+      </c>
+      <c r="I12" s="7" t="str">
+        <f t="array" ref="I12">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A16),0)),"")</f>
+        <v>서성혁</v>
+      </c>
+      <c r="J12" s="7" t="str">
+        <f t="array" ref="J12">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A16),0)),"")</f>
+        <v>박준일</v>
+      </c>
+      <c r="K12" s="7" t="str">
+        <f t="array" ref="K12">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A16),0)),"")</f>
         <v>김지헌</v>
       </c>
-      <c r="C12" s="22" t="str">
-        <f t="array" ref="C12">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A12),0)),"")</f>
-        <v>김상훈</v>
-      </c>
-      <c r="D12" s="22" t="str">
-        <f t="array" ref="D12">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A12),0)),"")</f>
-        <v>배진우</v>
-      </c>
-      <c r="E12" s="22" t="str">
-        <f t="array" ref="E12">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A12),0)),"")</f>
-        <v>김택경</v>
-      </c>
-      <c r="F12" s="22" t="str">
-        <f t="array" ref="F12">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A12),0)),"")</f>
-        <v>권보성</v>
-      </c>
-      <c r="G12" s="22" t="str">
-        <f t="array" ref="G12">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A12),0)),"")</f>
-        <v>김진서</v>
-      </c>
-      <c r="H12" s="22" t="str">
-        <f t="array" ref="H12">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A12),0)),"")</f>
-        <v>김지율</v>
-      </c>
-      <c r="I12" s="22" t="str">
-        <f t="array" ref="I12">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A12),0)),"")</f>
-        <v>박경민</v>
-      </c>
-      <c r="J12" s="22" t="str">
-        <f t="array" ref="J12">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A12),0)),"")</f>
-        <v>김효준</v>
-      </c>
-      <c r="K12" s="22" t="str">
-        <f t="array" ref="K12">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A12),0)),"")</f>
-        <v>김승현</v>
-      </c>
-      <c r="L12" s="22" t="str">
-        <f t="array" ref="L12">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A12),0)),"")</f>
-        <v>김선재</v>
-      </c>
-      <c r="M12" s="22" t="str">
-        <f t="array" ref="M12">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A12),0)),"")</f>
-        <v>노성찬</v>
-      </c>
-      <c r="N12" s="22" t="str">
-        <f t="array" ref="N12">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A12),0)),"")</f>
-        <v>김태현</v>
-      </c>
-      <c r="O12" s="23" t="str">
-        <f t="array" ref="O12">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A12),0)),"")</f>
-        <v>김현중</v>
+      <c r="L12" s="7" t="str">
+        <f t="array" ref="L12">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A16),0)),"")</f>
+        <v>김준호</v>
+      </c>
+      <c r="M12" s="7" t="str">
+        <f t="array" ref="M12">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A16),0)),"")</f>
+        <v>송민혁</v>
+      </c>
+      <c r="N12" s="7" t="str">
+        <f t="array" ref="N12">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A16),0)),"")</f>
+        <v>박해준</v>
+      </c>
+      <c r="O12" s="8" t="str">
+        <f t="array" ref="O12">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A16),0)),"")</f>
+        <v>박지한</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20">
-        <v>8</v>
-      </c>
-      <c r="B13" s="21" t="str">
-        <f t="array" ref="B13">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A13),0)),"")</f>
-        <v>김휘영</v>
-      </c>
-      <c r="C13" s="22" t="str">
-        <f t="array" ref="C13">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A13),0)),"")</f>
-        <v>김수겸</v>
-      </c>
-      <c r="D13" s="22" t="str">
-        <f t="array" ref="D13">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A13),0)),"")</f>
-        <v>석정환</v>
-      </c>
-      <c r="E13" s="22" t="str">
-        <f t="array" ref="E13">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A13),0)),"")</f>
-        <v>김호겸</v>
-      </c>
-      <c r="F13" s="22" t="str">
-        <f t="array" ref="F13">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A13),0)),"")</f>
-        <v>김유찬</v>
-      </c>
-      <c r="G13" s="22" t="str">
-        <f t="array" ref="G13">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A13),0)),"")</f>
-        <v>김진형</v>
-      </c>
-      <c r="H13" s="22" t="str">
-        <f t="array" ref="H13">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A13),0)),"")</f>
-        <v>박세영</v>
-      </c>
-      <c r="I13" s="22" t="str">
-        <f t="array" ref="I13">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A13),0)),"")</f>
-        <v>박민성</v>
-      </c>
-      <c r="J13" s="22" t="str">
-        <f t="array" ref="J13">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A13),0)),"")</f>
-        <v>명시원</v>
-      </c>
-      <c r="K13" s="22" t="str">
-        <f t="array" ref="K13">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A13),0)),"")</f>
-        <v>김시윤</v>
-      </c>
-      <c r="L13" s="22" t="str">
-        <f t="array" ref="L13">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A13),0)),"")</f>
-        <v>김시율</v>
-      </c>
-      <c r="M13" s="22" t="str">
-        <f t="array" ref="M13">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A13),0)),"")</f>
-        <v>노영진</v>
-      </c>
-      <c r="N13" s="22" t="str">
-        <f t="array" ref="N13">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A13),0)),"")</f>
-        <v>라하주</v>
-      </c>
-      <c r="O13" s="23" t="str">
-        <f t="array" ref="O13">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A13),0)),"")</f>
-        <v>민승준</v>
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="str">
+        <f t="array" ref="B13">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A17),0)),"")</f>
+        <v>엄형준</v>
+      </c>
+      <c r="C13" s="11" t="str">
+        <f t="array" ref="C13">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A17),0)),"")</f>
+        <v>박성우</v>
+      </c>
+      <c r="D13" s="11" t="str">
+        <f t="array" ref="D13">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A17),0)),"")</f>
+        <v>안형준</v>
+      </c>
+      <c r="E13" s="11" t="str">
+        <f t="array" ref="E13">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A17),0)),"")</f>
+        <v>신성근</v>
+      </c>
+      <c r="F13" s="11" t="str">
+        <f t="array" ref="F13">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A17),0)),"")</f>
+        <v>서보은</v>
+      </c>
+      <c r="G13" s="11" t="str">
+        <f t="array" ref="G13">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A17),0)),"")</f>
+        <v>박주형</v>
+      </c>
+      <c r="H13" s="11" t="str">
+        <f t="array" ref="H13">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A17),0)),"")</f>
+        <v>신기량</v>
+      </c>
+      <c r="I13" s="11" t="str">
+        <f t="array" ref="I13">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A17),0)),"")</f>
+        <v>송준혁</v>
+      </c>
+      <c r="J13" s="11" t="str">
+        <f t="array" ref="J13">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A17),0)),"")</f>
+        <v/>
+      </c>
+      <c r="K13" s="11" t="str">
+        <f t="array" ref="K13">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A17),0)),"")</f>
+        <v>김형준</v>
+      </c>
+      <c r="L13" s="11" t="str">
+        <f t="array" ref="L13">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A17),0)),"")</f>
+        <v>김현중</v>
+      </c>
+      <c r="M13" s="11" t="str">
+        <f t="array" ref="M13">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A17),0)),"")</f>
+        <v>신승우</v>
+      </c>
+      <c r="N13" s="11" t="str">
+        <f t="array" ref="N13">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A17),0)),"")</f>
+        <v>변지환</v>
+      </c>
+      <c r="O13" s="12" t="str">
+        <f t="array" ref="O13">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A17),0)),"")</f>
+        <v>손유안</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20">
-        <v>9</v>
-      </c>
-      <c r="B14" s="21" t="str">
-        <f t="array" ref="B14">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A14),0)),"")</f>
-        <v>문준호</v>
-      </c>
-      <c r="C14" s="22" t="str">
-        <f t="array" ref="C14">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A14),0)),"")</f>
-        <v>김태윤</v>
-      </c>
-      <c r="D14" s="22" t="str">
-        <f t="array" ref="D14">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A14),0)),"")</f>
-        <v>성지후</v>
-      </c>
-      <c r="E14" s="22" t="str">
-        <f t="array" ref="E14">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A14),0)),"")</f>
-        <v>류혁인</v>
-      </c>
-      <c r="F14" s="22" t="str">
-        <f t="array" ref="F14">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A14),0)),"")</f>
-        <v>김태헌</v>
-      </c>
-      <c r="G14" s="22" t="str">
-        <f t="array" ref="G14">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A14),0)),"")</f>
-        <v>나건호</v>
-      </c>
-      <c r="H14" s="22" t="str">
-        <f t="array" ref="H14">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A14),0)),"")</f>
-        <v>박우원</v>
-      </c>
-      <c r="I14" s="22" t="str">
-        <f t="array" ref="I14">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A14),0)),"")</f>
-        <v>박성현</v>
-      </c>
-      <c r="J14" s="22" t="str">
-        <f t="array" ref="J14">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A14),0)),"")</f>
-        <v>문성규</v>
-      </c>
-      <c r="K14" s="22" t="str">
-        <f t="array" ref="K14">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A14),0)),"")</f>
-        <v>김재환</v>
-      </c>
-      <c r="L14" s="22" t="str">
-        <f t="array" ref="L14">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A14),0)),"")</f>
-        <v>김영서</v>
-      </c>
-      <c r="M14" s="22" t="str">
-        <f t="array" ref="M14">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A14),0)),"")</f>
-        <v>박신우</v>
-      </c>
-      <c r="N14" s="22" t="str">
-        <f t="array" ref="N14">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A14),0)),"")</f>
-        <v>박율민</v>
-      </c>
-      <c r="O14" s="23" t="str">
-        <f t="array" ref="O14">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A14),0)),"")</f>
-        <v>박성익</v>
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="str">
+        <f t="array" ref="B14">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A18),0)),"")</f>
+        <v>예준호</v>
+      </c>
+      <c r="C14" s="11" t="str">
+        <f t="array" ref="C14">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A18),0)),"")</f>
+        <v>박승주</v>
+      </c>
+      <c r="D14" s="11" t="str">
+        <f t="array" ref="D14">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A18),0)),"")</f>
+        <v>엄지호</v>
+      </c>
+      <c r="E14" s="11" t="str">
+        <f t="array" ref="E14">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A18),0)),"")</f>
+        <v>오세영</v>
+      </c>
+      <c r="F14" s="11" t="str">
+        <f t="array" ref="F14">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A18),0)),"")</f>
+        <v>손태후</v>
+      </c>
+      <c r="G14" s="11" t="str">
+        <f t="array" ref="G14">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A18),0)),"")</f>
+        <v>박준현</v>
+      </c>
+      <c r="H14" s="11" t="str">
+        <f t="array" ref="H14">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A18),0)),"")</f>
+        <v>심영한</v>
+      </c>
+      <c r="I14" s="11" t="str">
+        <f t="array" ref="I14">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A18),0)),"")</f>
+        <v>위지한</v>
+      </c>
+      <c r="J14" s="11" t="str">
+        <f t="array" ref="J14">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A18),0)),"")</f>
+        <v>양승원</v>
+      </c>
+      <c r="K14" s="11" t="str">
+        <f t="array" ref="K14">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A18),0)),"")</f>
+        <v>문서우</v>
+      </c>
+      <c r="L14" s="11" t="str">
+        <f t="array" ref="L14">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A18),0)),"")</f>
+        <v>류한율</v>
+      </c>
+      <c r="M14" s="11" t="str">
+        <f t="array" ref="M14">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A18),0)),"")</f>
+        <v>신정우</v>
+      </c>
+      <c r="N14" s="11" t="str">
+        <f t="array" ref="N14">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A18),0)),"")</f>
+        <v>신재영</v>
+      </c>
+      <c r="O14" s="12" t="str">
+        <f t="array" ref="O14">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A18),0)),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="24">
-        <v>10</v>
-      </c>
-      <c r="B15" s="25" t="str">
-        <f t="array" ref="B15">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A15),0)),"")</f>
-        <v>박주혁</v>
-      </c>
-      <c r="C15" s="26" t="str">
-        <f t="array" ref="C15">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A15),0)),"")</f>
-        <v>박건민</v>
-      </c>
-      <c r="D15" s="26" t="str">
-        <f t="array" ref="D15">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A15),0)),"")</f>
-        <v>손성운</v>
-      </c>
-      <c r="E15" s="26" t="str">
-        <f t="array" ref="E15">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A15),0)),"")</f>
-        <v>박문찬</v>
-      </c>
-      <c r="F15" s="26" t="str">
-        <f t="array" ref="F15">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A15),0)),"")</f>
-        <v>김현승</v>
-      </c>
-      <c r="G15" s="26" t="str">
-        <f t="array" ref="G15">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A15),0)),"")</f>
-        <v>나도율</v>
-      </c>
-      <c r="H15" s="26" t="str">
-        <f t="array" ref="H15">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A15),0)),"")</f>
-        <v>박철민</v>
-      </c>
-      <c r="I15" s="26" t="str">
-        <f t="array" ref="I15">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A15),0)),"")</f>
-        <v>박찬빈</v>
-      </c>
-      <c r="J15" s="26" t="str">
-        <f t="array" ref="J15">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A15),0)),"")</f>
-        <v>박승민</v>
-      </c>
-      <c r="K15" s="26" t="str">
-        <f t="array" ref="K15">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A15),0)),"")</f>
-        <v>김준휘</v>
-      </c>
-      <c r="L15" s="26" t="str">
-        <f t="array" ref="L15">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A15),0)),"")</f>
-        <v>김종탁</v>
-      </c>
-      <c r="M15" s="26" t="str">
-        <f t="array" ref="M15">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A15),0)),"")</f>
-        <v>방지용</v>
-      </c>
-      <c r="N15" s="26" t="str">
-        <f t="array" ref="N15">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A15),0)),"")</f>
-        <v>박준우</v>
-      </c>
-      <c r="O15" s="27" t="str">
-        <f t="array" ref="O15">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A15),0)),"")</f>
-        <v>박성혁</v>
+    <row r="15" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="str">
+        <f t="array" ref="B15">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A19),0)),"")</f>
+        <v>윤종훈</v>
+      </c>
+      <c r="C15" s="11" t="str">
+        <f t="array" ref="C15">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A19),0)),"")</f>
+        <v>박윤제</v>
+      </c>
+      <c r="D15" s="11" t="str">
+        <f t="array" ref="D15">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A19),0)),"")</f>
+        <v>오민규</v>
+      </c>
+      <c r="E15" s="11" t="str">
+        <f t="array" ref="E15">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A19),0)),"")</f>
+        <v>윤수호</v>
+      </c>
+      <c r="F15" s="11" t="str">
+        <f t="array" ref="F15">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A19),0)),"")</f>
+        <v>왕시현</v>
+      </c>
+      <c r="G15" s="11" t="str">
+        <f t="array" ref="G15">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A19),0)),"")</f>
+        <v>박진표</v>
+      </c>
+      <c r="H15" s="11" t="str">
+        <f t="array" ref="H15">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A19),0)),"")</f>
+        <v>양기성</v>
+      </c>
+      <c r="I15" s="11" t="str">
+        <f t="array" ref="I15">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A19),0)),"")</f>
+        <v>유민형</v>
+      </c>
+      <c r="J15" s="11" t="str">
+        <f t="array" ref="J15">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A19),0)),"")</f>
+        <v>여수빈</v>
+      </c>
+      <c r="K15" s="11" t="str">
+        <f t="array" ref="K15">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A19),0)),"")</f>
+        <v>민서준</v>
+      </c>
+      <c r="L15" s="11" t="str">
+        <f t="array" ref="L15">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A19),0)),"")</f>
+        <v>문정기</v>
+      </c>
+      <c r="M15" s="11" t="str">
+        <f t="array" ref="M15">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A19),0)),"")</f>
+        <v>심재윤</v>
+      </c>
+      <c r="N15" s="11" t="str">
+        <f t="array" ref="N15">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A19),0)),"")</f>
+        <v>안윤원</v>
+      </c>
+      <c r="O15" s="12" t="str">
+        <f t="array" ref="O15">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A19),0)),"")</f>
+        <v>심현성</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
-        <v>11</v>
-      </c>
-      <c r="B16" s="17" t="str">
-        <f t="array" ref="B16">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A16),0)),"")</f>
-        <v>백찬우</v>
-      </c>
-      <c r="C16" s="18" t="str">
-        <f t="array" ref="C16">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A16),0)),"")</f>
-        <v>박기덕</v>
-      </c>
-      <c r="D16" s="18" t="str">
-        <f t="array" ref="D16">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A16),0)),"")</f>
-        <v>신동민</v>
-      </c>
-      <c r="E16" s="18" t="str">
-        <f t="array" ref="E16">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A16),0)),"")</f>
-        <v>박준영</v>
-      </c>
-      <c r="F16" s="18" t="str">
-        <f t="array" ref="F16">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A16),0)),"")</f>
-        <v>박시언</v>
-      </c>
-      <c r="G16" s="18" t="str">
-        <f t="array" ref="G16">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A16),0)),"")</f>
-        <v>류의환</v>
-      </c>
-      <c r="H16" s="18" t="str">
-        <f t="array" ref="H16">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A16),0)),"")</f>
-        <v>백승재</v>
-      </c>
-      <c r="I16" s="18" t="str">
-        <f t="array" ref="I16">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A16),0)),"")</f>
-        <v>서성혁</v>
-      </c>
-      <c r="J16" s="18" t="str">
-        <f t="array" ref="J16">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A16),0)),"")</f>
-        <v>박준일</v>
-      </c>
-      <c r="K16" s="18" t="str">
-        <f t="array" ref="K16">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A16),0)),"")</f>
-        <v>김지헌</v>
-      </c>
-      <c r="L16" s="18" t="str">
-        <f t="array" ref="L16">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A16),0)),"")</f>
-        <v>김준호</v>
-      </c>
-      <c r="M16" s="18" t="str">
-        <f t="array" ref="M16">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A16),0)),"")</f>
-        <v>송민혁</v>
-      </c>
-      <c r="N16" s="18" t="str">
-        <f t="array" ref="N16">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A16),0)),"")</f>
-        <v>박해준</v>
-      </c>
-      <c r="O16" s="19" t="str">
-        <f t="array" ref="O16">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A16),0)),"")</f>
-        <v>박지한</v>
+    <row r="16" spans="1:15" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14" t="str">
+        <f t="array" ref="B16">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A20),0)),"")</f>
+        <v>이동기</v>
+      </c>
+      <c r="C16" s="15" t="str">
+        <f t="array" ref="C16">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A20),0)),"")</f>
+        <v>박준상</v>
+      </c>
+      <c r="D16" s="15" t="str">
+        <f t="array" ref="D16">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A20),0)),"")</f>
+        <v>이경율</v>
+      </c>
+      <c r="E16" s="15" t="str">
+        <f t="array" ref="E16">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A20),0)),"")</f>
+        <v>이승규</v>
+      </c>
+      <c r="F16" s="15" t="str">
+        <f t="array" ref="F16">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A20),0)),"")</f>
+        <v>유선빈</v>
+      </c>
+      <c r="G16" s="15" t="str">
+        <f t="array" ref="G16">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A20),0)),"")</f>
+        <v>박찬영</v>
+      </c>
+      <c r="H16" s="15" t="str">
+        <f t="array" ref="H16">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A20),0)),"")</f>
+        <v>윤건</v>
+      </c>
+      <c r="I16" s="15" t="str">
+        <f t="array" ref="I16">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A20),0)),"")</f>
+        <v>유승원</v>
+      </c>
+      <c r="J16" s="15" t="str">
+        <f t="array" ref="J16">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A20),0)),"")</f>
+        <v>유호성</v>
+      </c>
+      <c r="K16" s="15" t="str">
+        <f t="array" ref="K16">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A20),0)),"")</f>
+        <v>박건우</v>
+      </c>
+      <c r="L16" s="15" t="str">
+        <f t="array" ref="L16">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A20),0)),"")</f>
+        <v>박재우</v>
+      </c>
+      <c r="M16" s="15" t="str">
+        <f t="array" ref="M16">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A20),0)),"")</f>
+        <v>심진용</v>
+      </c>
+      <c r="N16" s="15" t="str">
+        <f t="array" ref="N16">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A20),0)),"")</f>
+        <v>양재범</v>
+      </c>
+      <c r="O16" s="16" t="str">
+        <f t="array" ref="O16">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A20),0)),"")</f>
+        <v>안건우</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20">
-        <v>12</v>
-      </c>
-      <c r="B17" s="21" t="str">
-        <f t="array" ref="B17">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A17),0)),"")</f>
-        <v>엄형준</v>
-      </c>
-      <c r="C17" s="22" t="str">
-        <f t="array" ref="C17">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A17),0)),"")</f>
-        <v>박성우</v>
-      </c>
-      <c r="D17" s="22" t="str">
-        <f t="array" ref="D17">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A17),0)),"")</f>
-        <v>안형준</v>
-      </c>
-      <c r="E17" s="22" t="str">
-        <f t="array" ref="E17">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A17),0)),"")</f>
-        <v>신성근</v>
-      </c>
-      <c r="F17" s="22" t="str">
-        <f t="array" ref="F17">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A17),0)),"")</f>
-        <v>서보은</v>
-      </c>
-      <c r="G17" s="22" t="str">
-        <f t="array" ref="G17">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A17),0)),"")</f>
-        <v>박주형</v>
-      </c>
-      <c r="H17" s="22" t="str">
-        <f t="array" ref="H17">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A17),0)),"")</f>
-        <v>신기량</v>
-      </c>
-      <c r="I17" s="22" t="str">
-        <f t="array" ref="I17">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A17),0)),"")</f>
-        <v>송준혁</v>
-      </c>
-      <c r="J17" s="22" t="str">
-        <f t="array" ref="J17">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A17),0)),"")</f>
-        <v/>
-      </c>
-      <c r="K17" s="22" t="str">
-        <f t="array" ref="K17">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A17),0)),"")</f>
-        <v>김형준</v>
-      </c>
-      <c r="L17" s="22" t="str">
-        <f t="array" ref="L17">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A17),0)),"")</f>
-        <v>김현중</v>
-      </c>
-      <c r="M17" s="22" t="str">
-        <f t="array" ref="M17">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A17),0)),"")</f>
-        <v>신승우</v>
-      </c>
-      <c r="N17" s="22" t="str">
-        <f t="array" ref="N17">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A17),0)),"")</f>
-        <v>변지환</v>
-      </c>
-      <c r="O17" s="23" t="str">
-        <f t="array" ref="O17">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A17),0)),"")</f>
-        <v>손유안</v>
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="str">
+        <f t="array" ref="B17">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A21),0)),"")</f>
+        <v>이서윤</v>
+      </c>
+      <c r="C17" s="7" t="str">
+        <f t="array" ref="C17">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A21),0)),"")</f>
+        <v>송민준</v>
+      </c>
+      <c r="D17" s="7" t="str">
+        <f t="array" ref="D17">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A21),0)),"")</f>
+        <v>이도영</v>
+      </c>
+      <c r="E17" s="7" t="str">
+        <f t="array" ref="E17">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A21),0)),"")</f>
+        <v>이정후</v>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f t="array" ref="F17">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A21),0)),"")</f>
+        <v>이경수</v>
+      </c>
+      <c r="G17" s="7" t="str">
+        <f t="array" ref="G17">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A21),0)),"")</f>
+        <v>신승원</v>
+      </c>
+      <c r="H17" s="7" t="str">
+        <f t="array" ref="H17">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A21),0)),"")</f>
+        <v>이무겸</v>
+      </c>
+      <c r="I17" s="7" t="str">
+        <f t="array" ref="I17">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A21),0)),"")</f>
+        <v>유재빈</v>
+      </c>
+      <c r="J17" s="7" t="str">
+        <f t="array" ref="J17">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A21),0)),"")</f>
+        <v>윤서준</v>
+      </c>
+      <c r="K17" s="7" t="str">
+        <f t="array" ref="K17">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A21),0)),"")</f>
+        <v>박재윤</v>
+      </c>
+      <c r="L17" s="7" t="str">
+        <f t="array" ref="L17">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A21),0)),"")</f>
+        <v>박주빈</v>
+      </c>
+      <c r="M17" s="7" t="str">
+        <f t="array" ref="M17">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A21),0)),"")</f>
+        <v>우준하</v>
+      </c>
+      <c r="N17" s="7" t="str">
+        <f t="array" ref="N17">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A21),0)),"")</f>
+        <v>유재홍</v>
+      </c>
+      <c r="O17" s="8" t="str">
+        <f t="array" ref="O17">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A21),0)),"")</f>
+        <v>양윤호</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20">
-        <v>13</v>
-      </c>
-      <c r="B18" s="21" t="str">
-        <f t="array" ref="B18">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A18),0)),"")</f>
-        <v>예준호</v>
-      </c>
-      <c r="C18" s="22" t="str">
-        <f t="array" ref="C18">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A18),0)),"")</f>
-        <v>박승주</v>
-      </c>
-      <c r="D18" s="22" t="str">
-        <f t="array" ref="D18">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A18),0)),"")</f>
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="str">
+        <f t="array" ref="B18">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A22),0)),"")</f>
+        <v>이성준</v>
+      </c>
+      <c r="C18" s="11" t="str">
+        <f t="array" ref="C18">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A22),0)),"")</f>
+        <v>송채혁</v>
+      </c>
+      <c r="D18" s="11" t="str">
+        <f t="array" ref="D18">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A22),0)),"")</f>
+        <v>이로운</v>
+      </c>
+      <c r="E18" s="11" t="str">
+        <f t="array" ref="E18">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A22),0)),"")</f>
+        <v>이제찬</v>
+      </c>
+      <c r="F18" s="11" t="str">
+        <f t="array" ref="F18">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A22),0)),"")</f>
+        <v>이선호</v>
+      </c>
+      <c r="G18" s="11" t="str">
+        <f t="array" ref="G18">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A22),0)),"")</f>
         <v>엄지호</v>
       </c>
-      <c r="E18" s="22" t="str">
-        <f t="array" ref="E18">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A18),0)),"")</f>
-        <v>오세영</v>
-      </c>
-      <c r="F18" s="22" t="str">
-        <f t="array" ref="F18">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A18),0)),"")</f>
-        <v>손태후</v>
-      </c>
-      <c r="G18" s="22" t="str">
-        <f t="array" ref="G18">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A18),0)),"")</f>
-        <v>박준현</v>
-      </c>
-      <c r="H18" s="22" t="str">
-        <f t="array" ref="H18">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A18),0)),"")</f>
-        <v>심영한</v>
-      </c>
-      <c r="I18" s="22" t="str">
-        <f t="array" ref="I18">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A18),0)),"")</f>
-        <v>위지한</v>
-      </c>
-      <c r="J18" s="22" t="str">
-        <f t="array" ref="J18">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A18),0)),"")</f>
-        <v>양승원</v>
-      </c>
-      <c r="K18" s="22" t="str">
-        <f t="array" ref="K18">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A18),0)),"")</f>
-        <v>문서우</v>
-      </c>
-      <c r="L18" s="22" t="str">
-        <f t="array" ref="L18">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A18),0)),"")</f>
-        <v>류한율</v>
-      </c>
-      <c r="M18" s="22" t="str">
-        <f t="array" ref="M18">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A18),0)),"")</f>
-        <v>신정우</v>
-      </c>
-      <c r="N18" s="22" t="str">
-        <f t="array" ref="N18">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A18),0)),"")</f>
-        <v>신재영</v>
-      </c>
-      <c r="O18" s="23" t="str">
-        <f t="array" ref="O18">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A18),0)),"")</f>
-        <v/>
+      <c r="H18" s="11" t="str">
+        <f t="array" ref="H18">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A22),0)),"")</f>
+        <v>이승빈</v>
+      </c>
+      <c r="I18" s="11" t="str">
+        <f t="array" ref="I18">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A22),0)),"")</f>
+        <v>이상원</v>
+      </c>
+      <c r="J18" s="11" t="str">
+        <f t="array" ref="J18">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A22),0)),"")</f>
+        <v>윤지훈</v>
+      </c>
+      <c r="K18" s="11" t="str">
+        <f t="array" ref="K18">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A22),0)),"")</f>
+        <v>안상규</v>
+      </c>
+      <c r="L18" s="11" t="str">
+        <f t="array" ref="L18">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A22),0)),"")</f>
+        <v>송우진</v>
+      </c>
+      <c r="M18" s="11" t="str">
+        <f t="array" ref="M18">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A22),0)),"")</f>
+        <v>이서준</v>
+      </c>
+      <c r="N18" s="11" t="str">
+        <f t="array" ref="N18">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A22),0)),"")</f>
+        <v>윤서준</v>
+      </c>
+      <c r="O18" s="12" t="str">
+        <f t="array" ref="O18">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A22),0)),"")</f>
+        <v>이동하</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20">
-        <v>14</v>
-      </c>
-      <c r="B19" s="21" t="str">
-        <f t="array" ref="B19">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A19),0)),"")</f>
-        <v>윤종훈</v>
-      </c>
-      <c r="C19" s="22" t="str">
-        <f t="array" ref="C19">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A19),0)),"")</f>
-        <v>박윤제</v>
-      </c>
-      <c r="D19" s="22" t="str">
-        <f t="array" ref="D19">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A19),0)),"")</f>
-        <v>오민규</v>
-      </c>
-      <c r="E19" s="22" t="str">
-        <f t="array" ref="E19">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A19),0)),"")</f>
-        <v>윤수호</v>
-      </c>
-      <c r="F19" s="22" t="str">
-        <f t="array" ref="F19">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A19),0)),"")</f>
-        <v>왕시현</v>
-      </c>
-      <c r="G19" s="22" t="str">
-        <f t="array" ref="G19">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A19),0)),"")</f>
-        <v>박진표</v>
-      </c>
-      <c r="H19" s="22" t="str">
-        <f t="array" ref="H19">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A19),0)),"")</f>
-        <v>양기성</v>
-      </c>
-      <c r="I19" s="22" t="str">
-        <f t="array" ref="I19">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A19),0)),"")</f>
-        <v>유민형</v>
-      </c>
-      <c r="J19" s="22" t="str">
-        <f t="array" ref="J19">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A19),0)),"")</f>
-        <v>여수빈</v>
-      </c>
-      <c r="K19" s="22" t="str">
-        <f t="array" ref="K19">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A19),0)),"")</f>
-        <v>민서준</v>
-      </c>
-      <c r="L19" s="22" t="str">
-        <f t="array" ref="L19">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A19),0)),"")</f>
-        <v>문정기</v>
-      </c>
-      <c r="M19" s="22" t="str">
-        <f t="array" ref="M19">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A19),0)),"")</f>
-        <v>심재윤</v>
-      </c>
-      <c r="N19" s="22" t="str">
-        <f t="array" ref="N19">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A19),0)),"")</f>
-        <v>안윤원</v>
-      </c>
-      <c r="O19" s="23" t="str">
-        <f t="array" ref="O19">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A19),0)),"")</f>
-        <v>심현성</v>
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="str">
+        <f t="array" ref="B19">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A23),0)),"")</f>
+        <v>이시우</v>
+      </c>
+      <c r="C19" s="11" t="str">
+        <f t="array" ref="C19">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A23),0)),"")</f>
+        <v>신유철</v>
+      </c>
+      <c r="D19" s="11" t="str">
+        <f t="array" ref="D19">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A23),0)),"")</f>
+        <v>이정민</v>
+      </c>
+      <c r="E19" s="11" t="str">
+        <f t="array" ref="E19">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A23),0)),"")</f>
+        <v>이준</v>
+      </c>
+      <c r="F19" s="11" t="str">
+        <f t="array" ref="F19">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A23),0)),"")</f>
+        <v>이수호</v>
+      </c>
+      <c r="G19" s="11" t="str">
+        <f t="array" ref="G19">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A23),0)),"")</f>
+        <v>윤재석</v>
+      </c>
+      <c r="H19" s="11" t="str">
+        <f t="array" ref="H19">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A23),0)),"")</f>
+        <v>이제준</v>
+      </c>
+      <c r="I19" s="11" t="str">
+        <f t="array" ref="I19">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A23),0)),"")</f>
+        <v>이상훈</v>
+      </c>
+      <c r="J19" s="11" t="str">
+        <f t="array" ref="J19">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A23),0)),"")</f>
+        <v>이내경</v>
+      </c>
+      <c r="K19" s="11" t="str">
+        <f t="array" ref="K19">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A23),0)),"")</f>
+        <v>이준선</v>
+      </c>
+      <c r="L19" s="11" t="str">
+        <f t="array" ref="L19">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A23),0)),"")</f>
+        <v>신승원</v>
+      </c>
+      <c r="M19" s="11" t="str">
+        <f t="array" ref="M19">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A23),0)),"")</f>
+        <v>이세령</v>
+      </c>
+      <c r="N19" s="11" t="str">
+        <f t="array" ref="N19">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A23),0)),"")</f>
+        <v>이우석</v>
+      </c>
+      <c r="O19" s="12" t="str">
+        <f t="array" ref="O19">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A23),0)),"")</f>
+        <v>이승유</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="24">
-        <v>15</v>
-      </c>
-      <c r="B20" s="25" t="str">
-        <f t="array" ref="B20">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A20),0)),"")</f>
-        <v>이동기</v>
-      </c>
-      <c r="C20" s="26" t="str">
-        <f t="array" ref="C20">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A20),0)),"")</f>
-        <v>박준상</v>
-      </c>
-      <c r="D20" s="26" t="str">
-        <f t="array" ref="D20">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A20),0)),"")</f>
-        <v>이경율</v>
-      </c>
-      <c r="E20" s="26" t="str">
-        <f t="array" ref="E20">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A20),0)),"")</f>
-        <v>이승규</v>
-      </c>
-      <c r="F20" s="26" t="str">
-        <f t="array" ref="F20">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A20),0)),"")</f>
-        <v>유선빈</v>
-      </c>
-      <c r="G20" s="26" t="str">
-        <f t="array" ref="G20">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A20),0)),"")</f>
-        <v>박찬영</v>
-      </c>
-      <c r="H20" s="26" t="str">
-        <f t="array" ref="H20">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A20),0)),"")</f>
-        <v>윤건</v>
-      </c>
-      <c r="I20" s="26" t="str">
-        <f t="array" ref="I20">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A20),0)),"")</f>
-        <v>유승원</v>
-      </c>
-      <c r="J20" s="26" t="str">
-        <f t="array" ref="J20">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A20),0)),"")</f>
-        <v>유호성</v>
-      </c>
-      <c r="K20" s="26" t="str">
-        <f t="array" ref="K20">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A20),0)),"")</f>
-        <v>박건우</v>
-      </c>
-      <c r="L20" s="26" t="str">
-        <f t="array" ref="L20">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A20),0)),"")</f>
-        <v>박재우</v>
-      </c>
-      <c r="M20" s="26" t="str">
-        <f t="array" ref="M20">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A20),0)),"")</f>
-        <v>심진용</v>
-      </c>
-      <c r="N20" s="26" t="str">
-        <f t="array" ref="N20">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A20),0)),"")</f>
-        <v>양재범</v>
-      </c>
-      <c r="O20" s="27" t="str">
-        <f t="array" ref="O20">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A20),0)),"")</f>
-        <v>안건우</v>
+    <row r="20" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="str">
+        <f t="array" ref="B20">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A24),0)),"")</f>
+        <v>전민서</v>
+      </c>
+      <c r="C20" s="11" t="str">
+        <f t="array" ref="C20">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A24),0)),"")</f>
+        <v>안정수</v>
+      </c>
+      <c r="D20" s="11" t="str">
+        <f t="array" ref="D20">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A24),0)),"")</f>
+        <v>이주승</v>
+      </c>
+      <c r="E20" s="11" t="str">
+        <f t="array" ref="E20">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A24),0)),"")</f>
+        <v>이후성</v>
+      </c>
+      <c r="F20" s="11" t="str">
+        <f t="array" ref="F20">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A24),0)),"")</f>
+        <v>이윤우</v>
+      </c>
+      <c r="G20" s="11" t="str">
+        <f t="array" ref="G20">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A24),0)),"")</f>
+        <v>윤종하</v>
+      </c>
+      <c r="H20" s="11" t="str">
+        <f t="array" ref="H20">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A24),0)),"")</f>
+        <v>이진혁</v>
+      </c>
+      <c r="I20" s="11" t="str">
+        <f t="array" ref="I20">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A24),0)),"")</f>
+        <v>이서준</v>
+      </c>
+      <c r="J20" s="11" t="str">
+        <f t="array" ref="J20">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A24),0)),"")</f>
+        <v>이승현</v>
+      </c>
+      <c r="K20" s="11" t="str">
+        <f t="array" ref="K20">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A24),0)),"")</f>
+        <v>이준호</v>
+      </c>
+      <c r="L20" s="11" t="str">
+        <f t="array" ref="L20">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A24),0)),"")</f>
+        <v>신재유</v>
+      </c>
+      <c r="M20" s="11" t="str">
+        <f t="array" ref="M20">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A24),0)),"")</f>
+        <v>이승호</v>
+      </c>
+      <c r="N20" s="11" t="str">
+        <f t="array" ref="N20">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A24),0)),"")</f>
+        <v>이우주</v>
+      </c>
+      <c r="O20" s="12" t="str">
+        <f t="array" ref="O20">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A24),0)),"")</f>
+        <v>이원석</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16">
-        <v>16</v>
-      </c>
-      <c r="B21" s="17" t="str">
-        <f t="array" ref="B21">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A21),0)),"")</f>
-        <v>이서윤</v>
-      </c>
-      <c r="C21" s="18" t="str">
-        <f t="array" ref="C21">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A21),0)),"")</f>
-        <v>송민준</v>
-      </c>
-      <c r="D21" s="18" t="str">
-        <f t="array" ref="D21">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A21),0)),"")</f>
-        <v>이도영</v>
-      </c>
-      <c r="E21" s="18" t="str">
-        <f t="array" ref="E21">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A21),0)),"")</f>
-        <v>이정후</v>
-      </c>
-      <c r="F21" s="18" t="str">
-        <f t="array" ref="F21">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A21),0)),"")</f>
-        <v>이경수</v>
-      </c>
-      <c r="G21" s="18" t="str">
-        <f t="array" ref="G21">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A21),0)),"")</f>
-        <v>신승원</v>
-      </c>
-      <c r="H21" s="18" t="str">
-        <f t="array" ref="H21">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A21),0)),"")</f>
-        <v>이무겸</v>
-      </c>
-      <c r="I21" s="18" t="str">
-        <f t="array" ref="I21">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A21),0)),"")</f>
-        <v>유재빈</v>
-      </c>
-      <c r="J21" s="18" t="str">
-        <f t="array" ref="J21">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A21),0)),"")</f>
-        <v>윤서준</v>
-      </c>
-      <c r="K21" s="18" t="str">
-        <f t="array" ref="K21">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A21),0)),"")</f>
-        <v>박재윤</v>
-      </c>
-      <c r="L21" s="18" t="str">
-        <f t="array" ref="L21">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A21),0)),"")</f>
-        <v>박주빈</v>
-      </c>
-      <c r="M21" s="18" t="str">
-        <f t="array" ref="M21">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A21),0)),"")</f>
-        <v>우준하</v>
-      </c>
-      <c r="N21" s="18" t="str">
-        <f t="array" ref="N21">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A21),0)),"")</f>
-        <v>유재홍</v>
-      </c>
-      <c r="O21" s="19" t="str">
-        <f t="array" ref="O21">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A21),0)),"")</f>
-        <v>양윤호</v>
+    <row r="21" spans="1:15" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14" t="str">
+        <f t="array" ref="B21">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A25),0)),"")</f>
+        <v>전민우</v>
+      </c>
+      <c r="C21" s="15" t="str">
+        <f t="array" ref="C21">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A25),0)),"")</f>
+        <v>양정우</v>
+      </c>
+      <c r="D21" s="15" t="str">
+        <f t="array" ref="D21">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A25),0)),"")</f>
+        <v>이지환</v>
+      </c>
+      <c r="E21" s="15" t="str">
+        <f t="array" ref="E21">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A25),0)),"")</f>
+        <v>임하윤</v>
+      </c>
+      <c r="F21" s="15" t="str">
+        <f t="array" ref="F21">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A25),0)),"")</f>
+        <v>이종훈</v>
+      </c>
+      <c r="G21" s="15" t="str">
+        <f t="array" ref="G21">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A25),0)),"")</f>
+        <v>이동훈</v>
+      </c>
+      <c r="H21" s="15" t="str">
+        <f t="array" ref="H21">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A25),0)),"")</f>
+        <v>이현수</v>
+      </c>
+      <c r="I21" s="15" t="str">
+        <f t="array" ref="I21">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A25),0)),"")</f>
+        <v>이시형</v>
+      </c>
+      <c r="J21" s="15" t="str">
+        <f t="array" ref="J21">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A25),0)),"")</f>
+        <v>이하준</v>
+      </c>
+      <c r="K21" s="15" t="str">
+        <f t="array" ref="K21">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A25),0)),"")</f>
+        <v>장수한</v>
+      </c>
+      <c r="L21" s="15" t="str">
+        <f t="array" ref="L21">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A25),0)),"")</f>
+        <v>유도훈</v>
+      </c>
+      <c r="M21" s="15" t="str">
+        <f t="array" ref="M21">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A25),0)),"")</f>
+        <v>이주원</v>
+      </c>
+      <c r="N21" s="15" t="str">
+        <f t="array" ref="N21">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A25),0)),"")</f>
+        <v>이우준</v>
+      </c>
+      <c r="O21" s="16" t="str">
+        <f t="array" ref="O21">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A25),0)),"")</f>
+        <v>이은혁</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20">
-        <v>17</v>
-      </c>
-      <c r="B22" s="21" t="str">
-        <f t="array" ref="B22">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A22),0)),"")</f>
-        <v>이성준</v>
-      </c>
-      <c r="C22" s="22" t="str">
-        <f t="array" ref="C22">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A22),0)),"")</f>
-        <v>송채혁</v>
-      </c>
-      <c r="D22" s="22" t="str">
-        <f t="array" ref="D22">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A22),0)),"")</f>
-        <v>이로운</v>
-      </c>
-      <c r="E22" s="22" t="str">
-        <f t="array" ref="E22">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A22),0)),"")</f>
-        <v>이제찬</v>
-      </c>
-      <c r="F22" s="22" t="str">
-        <f t="array" ref="F22">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A22),0)),"")</f>
-        <v>이선호</v>
-      </c>
-      <c r="G22" s="22" t="str">
-        <f t="array" ref="G22">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A22),0)),"")</f>
-        <v>엄지호</v>
-      </c>
-      <c r="H22" s="22" t="str">
-        <f t="array" ref="H22">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A22),0)),"")</f>
-        <v>이승빈</v>
-      </c>
-      <c r="I22" s="22" t="str">
-        <f t="array" ref="I22">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A22),0)),"")</f>
-        <v>이상원</v>
-      </c>
-      <c r="J22" s="22" t="str">
-        <f t="array" ref="J22">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A22),0)),"")</f>
-        <v>윤지훈</v>
-      </c>
-      <c r="K22" s="22" t="str">
-        <f t="array" ref="K22">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A22),0)),"")</f>
-        <v>안상규</v>
-      </c>
-      <c r="L22" s="22" t="str">
-        <f t="array" ref="L22">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A22),0)),"")</f>
-        <v>송우진</v>
-      </c>
-      <c r="M22" s="22" t="str">
-        <f t="array" ref="M22">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A22),0)),"")</f>
-        <v>이서준</v>
-      </c>
-      <c r="N22" s="22" t="str">
-        <f t="array" ref="N22">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A22),0)),"")</f>
-        <v>윤서준</v>
-      </c>
-      <c r="O22" s="23" t="str">
-        <f t="array" ref="O22">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A22),0)),"")</f>
-        <v>이동하</v>
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="str">
+        <f t="array" ref="B22">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A26),0)),"")</f>
+        <v>정준혁</v>
+      </c>
+      <c r="C22" s="7" t="str">
+        <f t="array" ref="C22">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A26),0)),"")</f>
+        <v>왕지민</v>
+      </c>
+      <c r="D22" s="7" t="str">
+        <f t="array" ref="D22">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A26),0)),"")</f>
+        <v>장지훈</v>
+      </c>
+      <c r="E22" s="7" t="str">
+        <f t="array" ref="E22">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A26),0)),"")</f>
+        <v>정지우</v>
+      </c>
+      <c r="F22" s="7" t="str">
+        <f t="array" ref="F22">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A26),0)),"")</f>
+        <v>이지호</v>
+      </c>
+      <c r="G22" s="7" t="str">
+        <f t="array" ref="G22">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A26),0)),"")</f>
+        <v>이정우</v>
+      </c>
+      <c r="H22" s="7" t="str">
+        <f t="array" ref="H22">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A26),0)),"")</f>
+        <v>정원호</v>
+      </c>
+      <c r="I22" s="7" t="str">
+        <f t="array" ref="I22">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A26),0)),"")</f>
+        <v>이재휘</v>
+      </c>
+      <c r="J22" s="7" t="str">
+        <f t="array" ref="J22">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A26),0)),"")</f>
+        <v>이한준</v>
+      </c>
+      <c r="K22" s="7" t="str">
+        <f t="array" ref="K22">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A26),0)),"")</f>
+        <v>전준호</v>
+      </c>
+      <c r="L22" s="7" t="str">
+        <f t="array" ref="L22">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A26),0)),"")</f>
+        <v>이서형</v>
+      </c>
+      <c r="M22" s="7" t="str">
+        <f t="array" ref="M22">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A26),0)),"")</f>
+        <v>이찬율</v>
+      </c>
+      <c r="N22" s="7" t="str">
+        <f t="array" ref="N22">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A26),0)),"")</f>
+        <v>이지석</v>
+      </c>
+      <c r="O22" s="8" t="str">
+        <f t="array" ref="O22">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A26),0)),"")</f>
+        <v>이지후</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20">
-        <v>18</v>
-      </c>
-      <c r="B23" s="21" t="str">
-        <f t="array" ref="B23">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A23),0)),"")</f>
-        <v>이시우</v>
-      </c>
-      <c r="C23" s="22" t="str">
-        <f t="array" ref="C23">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A23),0)),"")</f>
-        <v>신유철</v>
-      </c>
-      <c r="D23" s="22" t="str">
-        <f t="array" ref="D23">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A23),0)),"")</f>
-        <v>이정민</v>
-      </c>
-      <c r="E23" s="22" t="str">
-        <f t="array" ref="E23">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A23),0)),"")</f>
-        <v>이준</v>
-      </c>
-      <c r="F23" s="22" t="str">
-        <f t="array" ref="F23">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A23),0)),"")</f>
-        <v>이수호</v>
-      </c>
-      <c r="G23" s="22" t="str">
-        <f t="array" ref="G23">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A23),0)),"")</f>
-        <v>윤재석</v>
-      </c>
-      <c r="H23" s="22" t="str">
-        <f t="array" ref="H23">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A23),0)),"")</f>
-        <v>이제준</v>
-      </c>
-      <c r="I23" s="22" t="str">
-        <f t="array" ref="I23">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A23),0)),"")</f>
-        <v>이상훈</v>
-      </c>
-      <c r="J23" s="22" t="str">
-        <f t="array" ref="J23">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A23),0)),"")</f>
-        <v>이내경</v>
-      </c>
-      <c r="K23" s="22" t="str">
-        <f t="array" ref="K23">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A23),0)),"")</f>
-        <v>이준선</v>
-      </c>
-      <c r="L23" s="22" t="str">
-        <f t="array" ref="L23">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A23),0)),"")</f>
-        <v>신승원</v>
-      </c>
-      <c r="M23" s="22" t="str">
-        <f t="array" ref="M23">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A23),0)),"")</f>
-        <v>이세령</v>
-      </c>
-      <c r="N23" s="22" t="str">
-        <f t="array" ref="N23">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A23),0)),"")</f>
-        <v>이우석</v>
-      </c>
-      <c r="O23" s="23" t="str">
-        <f t="array" ref="O23">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A23),0)),"")</f>
-        <v>이승유</v>
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="str">
+        <f t="array" ref="B23">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A27),0)),"")</f>
+        <v>정지우</v>
+      </c>
+      <c r="C23" s="11" t="str">
+        <f t="array" ref="C23">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A27),0)),"")</f>
+        <v>위정재</v>
+      </c>
+      <c r="D23" s="11" t="str">
+        <f t="array" ref="D23">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A27),0)),"")</f>
+        <v>전민준</v>
+      </c>
+      <c r="E23" s="11" t="str">
+        <f t="array" ref="E23">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A27),0)),"")</f>
+        <v>조한승</v>
+      </c>
+      <c r="F23" s="11" t="str">
+        <f t="array" ref="F23">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A27),0)),"")</f>
+        <v>임한성</v>
+      </c>
+      <c r="G23" s="11" t="str">
+        <f t="array" ref="G23">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A27),0)),"")</f>
+        <v/>
+      </c>
+      <c r="H23" s="11" t="str">
+        <f t="array" ref="H23">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A27),0)),"")</f>
+        <v>조승우</v>
+      </c>
+      <c r="I23" s="11" t="str">
+        <f t="array" ref="I23">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A27),0)),"")</f>
+        <v>이준영</v>
+      </c>
+      <c r="J23" s="11" t="str">
+        <f t="array" ref="J23">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A27),0)),"")</f>
+        <v>이현민</v>
+      </c>
+      <c r="K23" s="11" t="str">
+        <f t="array" ref="K23">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A27),0)),"")</f>
+        <v>정지원</v>
+      </c>
+      <c r="L23" s="11" t="str">
+        <f t="array" ref="L23">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A27),0)),"")</f>
+        <v>이영민</v>
+      </c>
+      <c r="M23" s="11" t="str">
+        <f t="array" ref="M23">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A27),0)),"")</f>
+        <v>이태규</v>
+      </c>
+      <c r="N23" s="11" t="str">
+        <f t="array" ref="N23">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A27),0)),"")</f>
+        <v>임지혁</v>
+      </c>
+      <c r="O23" s="12" t="str">
+        <f t="array" ref="O23">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A27),0)),"")</f>
+        <v>이태민</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20">
-        <v>19</v>
-      </c>
-      <c r="B24" s="21" t="str">
-        <f t="array" ref="B24">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A24),0)),"")</f>
-        <v>전민서</v>
-      </c>
-      <c r="C24" s="22" t="str">
-        <f t="array" ref="C24">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A24),0)),"")</f>
-        <v>안정수</v>
-      </c>
-      <c r="D24" s="22" t="str">
-        <f t="array" ref="D24">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A24),0)),"")</f>
-        <v>이주승</v>
-      </c>
-      <c r="E24" s="22" t="str">
-        <f t="array" ref="E24">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A24),0)),"")</f>
-        <v>이후성</v>
-      </c>
-      <c r="F24" s="22" t="str">
-        <f t="array" ref="F24">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A24),0)),"")</f>
-        <v>이윤우</v>
-      </c>
-      <c r="G24" s="22" t="str">
-        <f t="array" ref="G24">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A24),0)),"")</f>
-        <v>윤종하</v>
-      </c>
-      <c r="H24" s="22" t="str">
-        <f t="array" ref="H24">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A24),0)),"")</f>
-        <v>이진혁</v>
-      </c>
-      <c r="I24" s="22" t="str">
-        <f t="array" ref="I24">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A24),0)),"")</f>
-        <v>이서준</v>
-      </c>
-      <c r="J24" s="22" t="str">
-        <f t="array" ref="J24">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A24),0)),"")</f>
-        <v>이승현</v>
-      </c>
-      <c r="K24" s="22" t="str">
-        <f t="array" ref="K24">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A24),0)),"")</f>
-        <v>이준호</v>
-      </c>
-      <c r="L24" s="22" t="str">
-        <f t="array" ref="L24">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A24),0)),"")</f>
-        <v>신재유</v>
-      </c>
-      <c r="M24" s="22" t="str">
-        <f t="array" ref="M24">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A24),0)),"")</f>
-        <v>이승호</v>
-      </c>
-      <c r="N24" s="22" t="str">
-        <f t="array" ref="N24">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A24),0)),"")</f>
-        <v>이우주</v>
-      </c>
-      <c r="O24" s="23" t="str">
-        <f t="array" ref="O24">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A24),0)),"")</f>
-        <v>이원석</v>
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10" t="str">
+        <f t="array" ref="B24">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A28),0)),"")</f>
+        <v>정진솔</v>
+      </c>
+      <c r="C24" s="11" t="str">
+        <f t="array" ref="C24">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A28),0)),"")</f>
+        <v>이성준</v>
+      </c>
+      <c r="D24" s="11" t="str">
+        <f t="array" ref="D24">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A28),0)),"")</f>
+        <v>정세훈</v>
+      </c>
+      <c r="E24" s="11" t="str">
+        <f t="array" ref="E24">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A28),0)),"")</f>
+        <v>최민</v>
+      </c>
+      <c r="F24" s="11" t="str">
+        <f t="array" ref="F24">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A28),0)),"")</f>
+        <v>정시우</v>
+      </c>
+      <c r="G24" s="11" t="str">
+        <f t="array" ref="G24">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A28),0)),"")</f>
+        <v>전현식</v>
+      </c>
+      <c r="H24" s="11" t="str">
+        <f t="array" ref="H24">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A28),0)),"")</f>
+        <v>진성우</v>
+      </c>
+      <c r="I24" s="11" t="str">
+        <f t="array" ref="I24">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A28),0)),"")</f>
+        <v>이지환</v>
+      </c>
+      <c r="J24" s="11" t="str">
+        <f t="array" ref="J24">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A28),0)),"")</f>
+        <v>전민규</v>
+      </c>
+      <c r="K24" s="11" t="str">
+        <f t="array" ref="K24">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A28),0)),"")</f>
+        <v>정현준</v>
+      </c>
+      <c r="L24" s="11" t="str">
+        <f t="array" ref="L24">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A28),0)),"")</f>
+        <v>이재윤</v>
+      </c>
+      <c r="M24" s="11" t="str">
+        <f t="array" ref="M24">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A28),0)),"")</f>
+        <v>정라현</v>
+      </c>
+      <c r="N24" s="11" t="str">
+        <f t="array" ref="N24">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A28),0)),"")</f>
+        <v>장광혁</v>
+      </c>
+      <c r="O24" s="12" t="str">
+        <f t="array" ref="O24">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A28),0)),"")</f>
+        <v>정민수</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="24">
-        <v>20</v>
-      </c>
-      <c r="B25" s="25" t="str">
-        <f t="array" ref="B25">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A25),0)),"")</f>
-        <v>전민우</v>
-      </c>
-      <c r="C25" s="26" t="str">
-        <f t="array" ref="C25">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A25),0)),"")</f>
-        <v>양정우</v>
-      </c>
-      <c r="D25" s="26" t="str">
-        <f t="array" ref="D25">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A25),0)),"")</f>
-        <v>이지환</v>
-      </c>
-      <c r="E25" s="26" t="str">
-        <f t="array" ref="E25">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A25),0)),"")</f>
-        <v>임하윤</v>
-      </c>
-      <c r="F25" s="26" t="str">
-        <f t="array" ref="F25">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A25),0)),"")</f>
-        <v>이종훈</v>
-      </c>
-      <c r="G25" s="26" t="str">
-        <f t="array" ref="G25">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A25),0)),"")</f>
-        <v>이동훈</v>
-      </c>
-      <c r="H25" s="26" t="str">
-        <f t="array" ref="H25">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A25),0)),"")</f>
-        <v>이현수</v>
-      </c>
-      <c r="I25" s="26" t="str">
-        <f t="array" ref="I25">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A25),0)),"")</f>
-        <v>이시형</v>
-      </c>
-      <c r="J25" s="26" t="str">
-        <f t="array" ref="J25">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A25),0)),"")</f>
-        <v>이하준</v>
-      </c>
-      <c r="K25" s="26" t="str">
-        <f t="array" ref="K25">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A25),0)),"")</f>
-        <v>장수한</v>
-      </c>
-      <c r="L25" s="26" t="str">
-        <f t="array" ref="L25">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A25),0)),"")</f>
-        <v>유도훈</v>
-      </c>
-      <c r="M25" s="26" t="str">
-        <f t="array" ref="M25">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A25),0)),"")</f>
-        <v>이주원</v>
-      </c>
-      <c r="N25" s="26" t="str">
-        <f t="array" ref="N25">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A25),0)),"")</f>
-        <v>이우준</v>
-      </c>
-      <c r="O25" s="27" t="str">
-        <f t="array" ref="O25">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A25),0)),"")</f>
-        <v>이은혁</v>
+    <row r="25" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="str">
+        <f t="array" ref="B25">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A29),0)),"")</f>
+        <v>조승우</v>
+      </c>
+      <c r="C25" s="11" t="str">
+        <f t="array" ref="C25">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A29),0)),"")</f>
+        <v>이승욱</v>
+      </c>
+      <c r="D25" s="11" t="str">
+        <f t="array" ref="D25">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A29),0)),"")</f>
+        <v>정재균</v>
+      </c>
+      <c r="E25" s="11" t="str">
+        <f t="array" ref="E25">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A29),0)),"")</f>
+        <v>최병민</v>
+      </c>
+      <c r="F25" s="11" t="str">
+        <f t="array" ref="F25">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A29),0)),"")</f>
+        <v>조서율</v>
+      </c>
+      <c r="G25" s="11" t="str">
+        <f t="array" ref="G25">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A29),0)),"")</f>
+        <v>정세현</v>
+      </c>
+      <c r="H25" s="11" t="str">
+        <f t="array" ref="H25">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A29),0)),"")</f>
+        <v>최윤혁</v>
+      </c>
+      <c r="I25" s="11" t="str">
+        <f t="array" ref="I25">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A29),0)),"")</f>
+        <v>임우현</v>
+      </c>
+      <c r="J25" s="11" t="str">
+        <f t="array" ref="J25">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A29),0)),"")</f>
+        <v>정민찬</v>
+      </c>
+      <c r="K25" s="11" t="str">
+        <f t="array" ref="K25">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A29),0)),"")</f>
+        <v/>
+      </c>
+      <c r="L25" s="11" t="str">
+        <f t="array" ref="L25">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A29),0)),"")</f>
+        <v/>
+      </c>
+      <c r="M25" s="11" t="str">
+        <f t="array" ref="M25">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A29),0)),"")</f>
+        <v>정재윤</v>
+      </c>
+      <c r="N25" s="11" t="str">
+        <f t="array" ref="N25">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A29),0)),"")</f>
+        <v>정현범</v>
+      </c>
+      <c r="O25" s="12" t="str">
+        <f t="array" ref="O25">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A29),0)),"")</f>
+        <v>정시우</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16">
-        <v>21</v>
-      </c>
-      <c r="B26" s="17" t="str">
-        <f t="array" ref="B26">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A26),0)),"")</f>
-        <v>정준혁</v>
-      </c>
-      <c r="C26" s="18" t="str">
-        <f t="array" ref="C26">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A26),0)),"")</f>
-        <v>왕지민</v>
-      </c>
-      <c r="D26" s="18" t="str">
-        <f t="array" ref="D26">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A26),0)),"")</f>
-        <v>장지훈</v>
-      </c>
-      <c r="E26" s="18" t="str">
-        <f t="array" ref="E26">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A26),0)),"")</f>
-        <v>정지우</v>
-      </c>
-      <c r="F26" s="18" t="str">
-        <f t="array" ref="F26">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A26),0)),"")</f>
-        <v>이지호</v>
-      </c>
-      <c r="G26" s="18" t="str">
-        <f t="array" ref="G26">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A26),0)),"")</f>
-        <v>이정우</v>
-      </c>
-      <c r="H26" s="18" t="str">
-        <f t="array" ref="H26">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A26),0)),"")</f>
-        <v>정원호</v>
-      </c>
-      <c r="I26" s="18" t="str">
-        <f t="array" ref="I26">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A26),0)),"")</f>
-        <v>이재휘</v>
-      </c>
-      <c r="J26" s="18" t="str">
-        <f t="array" ref="J26">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A26),0)),"")</f>
-        <v>이한준</v>
-      </c>
-      <c r="K26" s="18" t="str">
-        <f t="array" ref="K26">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A26),0)),"")</f>
-        <v>전준호</v>
-      </c>
-      <c r="L26" s="18" t="str">
-        <f t="array" ref="L26">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A26),0)),"")</f>
-        <v>이서형</v>
-      </c>
-      <c r="M26" s="18" t="str">
-        <f t="array" ref="M26">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A26),0)),"")</f>
-        <v>이찬율</v>
-      </c>
-      <c r="N26" s="18" t="str">
-        <f t="array" ref="N26">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A26),0)),"")</f>
-        <v>이지석</v>
-      </c>
-      <c r="O26" s="19" t="str">
-        <f t="array" ref="O26">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A26),0)),"")</f>
-        <v>이지후</v>
+    <row r="26" spans="1:15" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="13">
+        <v>25</v>
+      </c>
+      <c r="B26" s="14" t="str">
+        <f t="array" ref="B26">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A30),0)),"")</f>
+        <v>주휘준</v>
+      </c>
+      <c r="C26" s="15" t="str">
+        <f t="array" ref="C26">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A30),0)),"")</f>
+        <v>이준서</v>
+      </c>
+      <c r="D26" s="15" t="str">
+        <f t="array" ref="D26">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A30),0)),"")</f>
+        <v>주민찬</v>
+      </c>
+      <c r="E26" s="15" t="str">
+        <f t="array" ref="E26">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A30),0)),"")</f>
+        <v>최원준</v>
+      </c>
+      <c r="F26" s="15" t="str">
+        <f t="array" ref="F26">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A30),0)),"")</f>
+        <v>조하율</v>
+      </c>
+      <c r="G26" s="15" t="str">
+        <f t="array" ref="G26">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A30),0)),"")</f>
+        <v>조민재</v>
+      </c>
+      <c r="H26" s="15" t="str">
+        <f t="array" ref="H26">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A30),0)),"")</f>
+        <v>한민규</v>
+      </c>
+      <c r="I26" s="15" t="str">
+        <f t="array" ref="I26">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A30),0)),"")</f>
+        <v>정상우</v>
+      </c>
+      <c r="J26" s="15" t="str">
+        <f t="array" ref="J26">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A30),0)),"")</f>
+        <v>정재윤</v>
+      </c>
+      <c r="K26" s="15" t="str">
+        <f t="array" ref="K26">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A30),0)),"")</f>
+        <v>지해원</v>
+      </c>
+      <c r="L26" s="15" t="str">
+        <f t="array" ref="L26">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A30),0)),"")</f>
+        <v>이하민</v>
+      </c>
+      <c r="M26" s="15" t="str">
+        <f t="array" ref="M26">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A30),0)),"")</f>
+        <v>정태훈</v>
+      </c>
+      <c r="N26" s="15" t="str">
+        <f t="array" ref="N26">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A30),0)),"")</f>
+        <v>최윤호</v>
+      </c>
+      <c r="O26" s="16" t="str">
+        <f t="array" ref="O26">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A30),0)),"")</f>
+        <v>최이안</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20">
-        <v>22</v>
-      </c>
-      <c r="B27" s="21" t="str">
-        <f t="array" ref="B27">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A27),0)),"")</f>
-        <v>정지우</v>
-      </c>
-      <c r="C27" s="22" t="str">
-        <f t="array" ref="C27">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A27),0)),"")</f>
-        <v>위정재</v>
-      </c>
-      <c r="D27" s="22" t="str">
-        <f t="array" ref="D27">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A27),0)),"")</f>
-        <v>전민준</v>
-      </c>
-      <c r="E27" s="22" t="str">
-        <f t="array" ref="E27">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A27),0)),"")</f>
-        <v>조한승</v>
-      </c>
-      <c r="F27" s="22" t="str">
-        <f t="array" ref="F27">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A27),0)),"")</f>
-        <v>임한성</v>
-      </c>
-      <c r="G27" s="22" t="str">
-        <f t="array" ref="G27">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A27),0)),"")</f>
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="str">
+        <f t="array" ref="B27">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A31),0)),"")</f>
+        <v>최문기</v>
+      </c>
+      <c r="C27" s="7" t="str">
+        <f t="array" ref="C27">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A31),0)),"")</f>
+        <v>전진형</v>
+      </c>
+      <c r="D27" s="7" t="str">
+        <f t="array" ref="D27">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A31),0)),"")</f>
         <v/>
       </c>
-      <c r="H27" s="22" t="str">
-        <f t="array" ref="H27">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A27),0)),"")</f>
-        <v>조승우</v>
-      </c>
-      <c r="I27" s="22" t="str">
-        <f t="array" ref="I27">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A27),0)),"")</f>
-        <v>이준영</v>
-      </c>
-      <c r="J27" s="22" t="str">
-        <f t="array" ref="J27">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A27),0)),"")</f>
-        <v>이현민</v>
-      </c>
-      <c r="K27" s="22" t="str">
-        <f t="array" ref="K27">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A27),0)),"")</f>
-        <v>정지원</v>
-      </c>
-      <c r="L27" s="22" t="str">
-        <f t="array" ref="L27">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A27),0)),"")</f>
-        <v>이영민</v>
-      </c>
-      <c r="M27" s="22" t="str">
-        <f t="array" ref="M27">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A27),0)),"")</f>
-        <v>이태규</v>
-      </c>
-      <c r="N27" s="22" t="str">
-        <f t="array" ref="N27">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A27),0)),"")</f>
-        <v>임지혁</v>
-      </c>
-      <c r="O27" s="23" t="str">
-        <f t="array" ref="O27">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A27),0)),"")</f>
-        <v>이태민</v>
+      <c r="E27" s="7" t="str">
+        <f t="array" ref="E27">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A31),0)),"")</f>
+        <v>최지웅</v>
+      </c>
+      <c r="F27" s="7" t="str">
+        <f t="array" ref="F27">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A31),0)),"")</f>
+        <v>최병준</v>
+      </c>
+      <c r="G27" s="7" t="str">
+        <f t="array" ref="G27">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A31),0)),"")</f>
+        <v>최준혁</v>
+      </c>
+      <c r="H27" s="7" t="str">
+        <f t="array" ref="H27">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A31),0)),"")</f>
+        <v>한예찬</v>
+      </c>
+      <c r="I27" s="7" t="str">
+        <f t="array" ref="I27">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A31),0)),"")</f>
+        <v>정시우</v>
+      </c>
+      <c r="J27" s="7" t="str">
+        <f t="array" ref="J27">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A31),0)),"")</f>
+        <v>천유건</v>
+      </c>
+      <c r="K27" s="7" t="str">
+        <f t="array" ref="K27">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A31),0)),"")</f>
+        <v>차승세</v>
+      </c>
+      <c r="L27" s="7" t="str">
+        <f t="array" ref="L27">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A31),0)),"")</f>
+        <v>정기민</v>
+      </c>
+      <c r="M27" s="7" t="str">
+        <f t="array" ref="M27">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A31),0)),"")</f>
+        <v>조민우</v>
+      </c>
+      <c r="N27" s="7" t="str">
+        <f t="array" ref="N27">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A31),0)),"")</f>
+        <v>최준환</v>
+      </c>
+      <c r="O27" s="8" t="str">
+        <f t="array" ref="O27">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A31),0)),"")</f>
+        <v>추시웅</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20">
-        <v>23</v>
-      </c>
-      <c r="B28" s="21" t="str">
-        <f t="array" ref="B28">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A28),0)),"")</f>
-        <v>정진솔</v>
-      </c>
-      <c r="C28" s="22" t="str">
-        <f t="array" ref="C28">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A28),0)),"")</f>
-        <v>이성준</v>
-      </c>
-      <c r="D28" s="22" t="str">
-        <f t="array" ref="D28">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A28),0)),"")</f>
-        <v>정세훈</v>
-      </c>
-      <c r="E28" s="22" t="str">
-        <f t="array" ref="E28">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A28),0)),"")</f>
-        <v>최민</v>
-      </c>
-      <c r="F28" s="22" t="str">
-        <f t="array" ref="F28">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A28),0)),"")</f>
-        <v>정시우</v>
-      </c>
-      <c r="G28" s="22" t="str">
-        <f t="array" ref="G28">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A28),0)),"")</f>
-        <v>전현식</v>
-      </c>
-      <c r="H28" s="22" t="str">
-        <f t="array" ref="H28">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A28),0)),"")</f>
-        <v>진성우</v>
-      </c>
-      <c r="I28" s="22" t="str">
-        <f t="array" ref="I28">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A28),0)),"")</f>
-        <v>이지환</v>
-      </c>
-      <c r="J28" s="22" t="str">
-        <f t="array" ref="J28">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A28),0)),"")</f>
-        <v>전민규</v>
-      </c>
-      <c r="K28" s="22" t="str">
-        <f t="array" ref="K28">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A28),0)),"")</f>
-        <v>정현준</v>
-      </c>
-      <c r="L28" s="22" t="str">
-        <f t="array" ref="L28">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A28),0)),"")</f>
-        <v>이재윤</v>
-      </c>
-      <c r="M28" s="22" t="str">
-        <f t="array" ref="M28">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A28),0)),"")</f>
-        <v>정라현</v>
-      </c>
-      <c r="N28" s="22" t="str">
-        <f t="array" ref="N28">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A28),0)),"")</f>
-        <v>장광혁</v>
-      </c>
-      <c r="O28" s="23" t="str">
-        <f t="array" ref="O28">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A28),0)),"")</f>
-        <v>정민수</v>
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10" t="str">
+        <f t="array" ref="B28">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A32),0)),"")</f>
+        <v>하동균</v>
+      </c>
+      <c r="C28" s="11" t="str">
+        <f t="array" ref="C28">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A32),0)),"")</f>
+        <v>조현빈</v>
+      </c>
+      <c r="D28" s="11" t="str">
+        <f t="array" ref="D28">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A32),0)),"")</f>
+        <v>홍서준</v>
+      </c>
+      <c r="E28" s="11" t="str">
+        <f t="array" ref="E28">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A32),0)),"")</f>
+        <v>한은제</v>
+      </c>
+      <c r="F28" s="11" t="str">
+        <f t="array" ref="F28">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A32),0)),"")</f>
+        <v>한준서</v>
+      </c>
+      <c r="G28" s="11" t="str">
+        <f t="array" ref="G28">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A32),0)),"")</f>
+        <v>최준호</v>
+      </c>
+      <c r="H28" s="11" t="str">
+        <f t="array" ref="H28">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A32),0)),"")</f>
+        <v>허유립</v>
+      </c>
+      <c r="I28" s="11" t="str">
+        <f t="array" ref="I28">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A32),0)),"")</f>
+        <v>정은찬</v>
+      </c>
+      <c r="J28" s="11" t="str">
+        <f t="array" ref="J28">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A32),0)),"")</f>
+        <v>최한성</v>
+      </c>
+      <c r="K28" s="11" t="str">
+        <f t="array" ref="K28">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A32),0)),"")</f>
+        <v>한장윤</v>
+      </c>
+      <c r="L28" s="11" t="str">
+        <f t="array" ref="L28">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A32),0)),"")</f>
+        <v>정유찬</v>
+      </c>
+      <c r="M28" s="11" t="str">
+        <f t="array" ref="M28">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A32),0)),"")</f>
+        <v/>
+      </c>
+      <c r="N28" s="11" t="str">
+        <f t="array" ref="N28">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A32),0)),"")</f>
+        <v>현재민</v>
+      </c>
+      <c r="O28" s="12" t="str">
+        <f t="array" ref="O28">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A32),0)),"")</f>
+        <v>허진성</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20">
-        <v>24</v>
-      </c>
-      <c r="B29" s="21" t="str">
-        <f t="array" ref="B29">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A29),0)),"")</f>
-        <v>조승우</v>
-      </c>
-      <c r="C29" s="22" t="str">
-        <f t="array" ref="C29">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A29),0)),"")</f>
-        <v>이승욱</v>
-      </c>
-      <c r="D29" s="22" t="str">
-        <f t="array" ref="D29">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A29),0)),"")</f>
-        <v>정재균</v>
-      </c>
-      <c r="E29" s="22" t="str">
-        <f t="array" ref="E29">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A29),0)),"")</f>
-        <v>최병민</v>
-      </c>
-      <c r="F29" s="22" t="str">
-        <f t="array" ref="F29">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A29),0)),"")</f>
-        <v>조서율</v>
-      </c>
-      <c r="G29" s="22" t="str">
-        <f t="array" ref="G29">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A29),0)),"")</f>
-        <v>정세현</v>
-      </c>
-      <c r="H29" s="22" t="str">
-        <f t="array" ref="H29">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A29),0)),"")</f>
-        <v>최윤혁</v>
-      </c>
-      <c r="I29" s="22" t="str">
-        <f t="array" ref="I29">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A29),0)),"")</f>
-        <v>임우현</v>
-      </c>
-      <c r="J29" s="22" t="str">
-        <f t="array" ref="J29">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A29),0)),"")</f>
-        <v>정민찬</v>
-      </c>
-      <c r="K29" s="22" t="str">
-        <f t="array" ref="K29">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A29),0)),"")</f>
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10" t="str">
+        <f t="array" ref="B29">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A33),0)),"")</f>
         <v/>
       </c>
-      <c r="L29" s="22" t="str">
-        <f t="array" ref="L29">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A29),0)),"")</f>
+      <c r="C29" s="11" t="str">
+        <f t="array" ref="C29">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A33),0)),"")</f>
         <v/>
       </c>
-      <c r="M29" s="22" t="str">
-        <f t="array" ref="M29">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A29),0)),"")</f>
-        <v>정재윤</v>
-      </c>
-      <c r="N29" s="22" t="str">
-        <f t="array" ref="N29">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A29),0)),"")</f>
-        <v>정현범</v>
-      </c>
-      <c r="O29" s="23" t="str">
-        <f t="array" ref="O29">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A29),0)),"")</f>
-        <v>정시우</v>
+      <c r="D29" s="11" t="str">
+        <f t="array" ref="D29">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A33),0)),"")</f>
+        <v/>
+      </c>
+      <c r="E29" s="11" t="str">
+        <f t="array" ref="E29">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A33),0)),"")</f>
+        <v>허준범</v>
+      </c>
+      <c r="F29" s="11" t="str">
+        <f t="array" ref="F29">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A33),0)),"")</f>
+        <v/>
+      </c>
+      <c r="G29" s="11" t="str">
+        <f t="array" ref="G29">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A33),0)),"")</f>
+        <v>최지호</v>
+      </c>
+      <c r="H29" s="11" t="str">
+        <f t="array" ref="H29">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A33),0)),"")</f>
+        <v>황민철</v>
+      </c>
+      <c r="I29" s="11" t="str">
+        <f t="array" ref="I29">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A33),0)),"")</f>
+        <v>최예성</v>
+      </c>
+      <c r="J29" s="11" t="str">
+        <f t="array" ref="J29">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A33),0)),"")</f>
+        <v>최혁준</v>
+      </c>
+      <c r="K29" s="11" t="str">
+        <f t="array" ref="K29">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A33),0)),"")</f>
+        <v>허선유</v>
+      </c>
+      <c r="L29" s="11" t="str">
+        <f t="array" ref="L29">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A33),0)),"")</f>
+        <v>조윤호</v>
+      </c>
+      <c r="M29" s="11" t="str">
+        <f t="array" ref="M29">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A33),0)),"")</f>
+        <v>차승민</v>
+      </c>
+      <c r="N29" s="11" t="str">
+        <f t="array" ref="N29">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A33),0)),"")</f>
+        <v>황태경</v>
+      </c>
+      <c r="O29" s="12" t="str">
+        <f t="array" ref="O29">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A33),0)),"")</f>
+        <v>황민준</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="24">
-        <v>25</v>
-      </c>
-      <c r="B30" s="25" t="str">
-        <f t="array" ref="B30">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A30),0)),"")</f>
-        <v>주휘준</v>
-      </c>
-      <c r="C30" s="26" t="str">
-        <f t="array" ref="C30">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A30),0)),"")</f>
-        <v>이준서</v>
-      </c>
-      <c r="D30" s="26" t="str">
-        <f t="array" ref="D30">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A30),0)),"")</f>
-        <v>주민찬</v>
-      </c>
-      <c r="E30" s="26" t="str">
-        <f t="array" ref="E30">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A30),0)),"")</f>
-        <v>최원준</v>
-      </c>
-      <c r="F30" s="26" t="str">
-        <f t="array" ref="F30">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A30),0)),"")</f>
-        <v>조하율</v>
-      </c>
-      <c r="G30" s="26" t="str">
-        <f t="array" ref="G30">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A30),0)),"")</f>
-        <v>조민재</v>
-      </c>
-      <c r="H30" s="26" t="str">
-        <f t="array" ref="H30">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A30),0)),"")</f>
-        <v>한민규</v>
-      </c>
-      <c r="I30" s="26" t="str">
-        <f t="array" ref="I30">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A30),0)),"")</f>
-        <v>정상우</v>
-      </c>
-      <c r="J30" s="26" t="str">
-        <f t="array" ref="J30">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A30),0)),"")</f>
-        <v>정재윤</v>
-      </c>
-      <c r="K30" s="26" t="str">
-        <f t="array" ref="K30">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A30),0)),"")</f>
-        <v>지해원</v>
-      </c>
-      <c r="L30" s="26" t="str">
-        <f t="array" ref="L30">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A30),0)),"")</f>
-        <v>이하민</v>
-      </c>
-      <c r="M30" s="26" t="str">
-        <f t="array" ref="M30">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A30),0)),"")</f>
-        <v>정태훈</v>
-      </c>
-      <c r="N30" s="26" t="str">
-        <f t="array" ref="N30">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A30),0)),"")</f>
-        <v>최윤호</v>
-      </c>
-      <c r="O30" s="27" t="str">
-        <f t="array" ref="O30">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A30),0)),"")</f>
-        <v>최이안</v>
+    <row r="30" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10" t="str">
+        <f t="array" ref="B30">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A34),0)),"")</f>
+        <v/>
+      </c>
+      <c r="C30" s="11" t="str">
+        <f t="array" ref="C30">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A34),0)),"")</f>
+        <v/>
+      </c>
+      <c r="D30" s="11" t="str">
+        <f t="array" ref="D30">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A34),0)),"")</f>
+        <v/>
+      </c>
+      <c r="E30" s="11" t="str">
+        <f t="array" ref="E30">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A34),0)),"")</f>
+        <v>홍성오</v>
+      </c>
+      <c r="F30" s="11" t="str">
+        <f t="array" ref="F30">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A34),0)),"")</f>
+        <v>홍석주</v>
+      </c>
+      <c r="G30" s="11" t="str">
+        <f t="array" ref="G30">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A34),0)),"")</f>
+        <v>황태용</v>
+      </c>
+      <c r="H30" s="11" t="str">
+        <f t="array" ref="H30">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A34),0)),"")</f>
+        <v>조영준</v>
+      </c>
+      <c r="I30" s="11" t="str">
+        <f t="array" ref="I30">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A34),0)),"")</f>
+        <v>최지율</v>
+      </c>
+      <c r="J30" s="11" t="str">
+        <f t="array" ref="J30">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A34),0)),"")</f>
+        <v>최현준</v>
+      </c>
+      <c r="K30" s="11" t="str">
+        <f t="array" ref="K30">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A34),0)),"")</f>
+        <v>홍정우</v>
+      </c>
+      <c r="L30" s="11" t="str">
+        <f t="array" ref="L30">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A34),0)),"")</f>
+        <v>황태상</v>
+      </c>
+      <c r="M30" s="11" t="str">
+        <f t="array" ref="M30">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A34),0)),"")</f>
+        <v>차재원</v>
+      </c>
+      <c r="N30" s="11" t="str">
+        <f t="array" ref="N30">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A34),0)),"")</f>
+        <v>김종현</v>
+      </c>
+      <c r="O30" s="12" t="str">
+        <f t="array" ref="O30">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A34),0)),"")</f>
+        <v>송은호</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="16">
-        <v>26</v>
-      </c>
-      <c r="B31" s="17" t="str">
-        <f t="array" ref="B31">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A31),0)),"")</f>
-        <v>최문기</v>
-      </c>
-      <c r="C31" s="18" t="str">
-        <f t="array" ref="C31">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A31),0)),"")</f>
-        <v>전진형</v>
-      </c>
-      <c r="D31" s="18" t="str">
-        <f t="array" ref="D31">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A31),0)),"")</f>
+    <row r="31" spans="1:15" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="13">
+        <v>30</v>
+      </c>
+      <c r="B31" s="14" t="str">
+        <f t="array" ref="B31">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A35),0)),"")</f>
         <v/>
       </c>
-      <c r="E31" s="18" t="str">
-        <f t="array" ref="E31">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A31),0)),"")</f>
-        <v>최지웅</v>
-      </c>
-      <c r="F31" s="18" t="str">
-        <f t="array" ref="F31">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A31),0)),"")</f>
-        <v>최병준</v>
-      </c>
-      <c r="G31" s="18" t="str">
-        <f t="array" ref="G31">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A31),0)),"")</f>
-        <v>최준혁</v>
-      </c>
-      <c r="H31" s="18" t="str">
-        <f t="array" ref="H31">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A31),0)),"")</f>
-        <v>한예찬</v>
-      </c>
-      <c r="I31" s="18" t="str">
-        <f t="array" ref="I31">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A31),0)),"")</f>
-        <v>정시우</v>
-      </c>
-      <c r="J31" s="18" t="str">
-        <f t="array" ref="J31">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A31),0)),"")</f>
-        <v>천유건</v>
-      </c>
-      <c r="K31" s="18" t="str">
-        <f t="array" ref="K31">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A31),0)),"")</f>
-        <v>차승세</v>
-      </c>
-      <c r="L31" s="18" t="str">
-        <f t="array" ref="L31">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A31),0)),"")</f>
-        <v>정기민</v>
-      </c>
-      <c r="M31" s="18" t="str">
-        <f t="array" ref="M31">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A31),0)),"")</f>
-        <v>조민우</v>
-      </c>
-      <c r="N31" s="18" t="str">
-        <f t="array" ref="N31">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A31),0)),"")</f>
-        <v>최준환</v>
-      </c>
-      <c r="O31" s="19" t="str">
-        <f t="array" ref="O31">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A31),0)),"")</f>
-        <v>추시웅</v>
+      <c r="C31" s="15" t="str">
+        <f t="array" ref="C31">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A35),0)),"")</f>
+        <v/>
+      </c>
+      <c r="D31" s="15" t="str">
+        <f t="array" ref="D31">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A35),0)),"")</f>
+        <v/>
+      </c>
+      <c r="E31" s="15" t="str">
+        <f t="array" ref="E31">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A35),0)),"")</f>
+        <v>송채윤</v>
+      </c>
+      <c r="F31" s="15" t="str">
+        <f t="array" ref="F31">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A35),0)),"")</f>
+        <v>장희동</v>
+      </c>
+      <c r="G31" s="15" t="str">
+        <f t="array" ref="G31">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A35),0)),"")</f>
+        <v>유준상</v>
+      </c>
+      <c r="H31" s="15" t="str">
+        <f t="array" ref="H31">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A35),0)),"")</f>
+        <v/>
+      </c>
+      <c r="I31" s="15" t="str">
+        <f t="array" ref="I31">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A35),0)),"")</f>
+        <v/>
+      </c>
+      <c r="J31" s="15" t="str">
+        <f t="array" ref="J31">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A35),0)),"")</f>
+        <v>박찬우</v>
+      </c>
+      <c r="K31" s="15" t="str">
+        <f t="array" ref="K31">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A35),0)),"")</f>
+        <v/>
+      </c>
+      <c r="L31" s="15" t="str">
+        <f t="array" ref="L31">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A35),0)),"")</f>
+        <v>김정윤</v>
+      </c>
+      <c r="M31" s="15" t="str">
+        <f t="array" ref="M31">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A35),0)),"")</f>
+        <v/>
+      </c>
+      <c r="N31" s="15" t="str">
+        <f t="array" ref="N31">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A35),0)),"")</f>
+        <v>이현우</v>
+      </c>
+      <c r="O31" s="16" t="str">
+        <f t="array" ref="O31">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A35),0)),"")</f>
+        <v>서영민</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20">
-        <v>27</v>
-      </c>
-      <c r="B32" s="21" t="str">
-        <f t="array" ref="B32">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A32),0)),"")</f>
-        <v>하동균</v>
-      </c>
-      <c r="C32" s="22" t="str">
-        <f t="array" ref="C32">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A32),0)),"")</f>
-        <v>조현빈</v>
-      </c>
-      <c r="D32" s="22" t="str">
-        <f t="array" ref="D32">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A32),0)),"")</f>
-        <v>홍서준</v>
-      </c>
-      <c r="E32" s="22" t="str">
-        <f t="array" ref="E32">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A32),0)),"")</f>
-        <v>한은제</v>
-      </c>
-      <c r="F32" s="22" t="str">
-        <f t="array" ref="F32">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A32),0)),"")</f>
-        <v>한준서</v>
-      </c>
-      <c r="G32" s="22" t="str">
-        <f t="array" ref="G32">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A32),0)),"")</f>
-        <v>최준호</v>
-      </c>
-      <c r="H32" s="22" t="str">
-        <f t="array" ref="H32">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A32),0)),"")</f>
-        <v>허유립</v>
-      </c>
-      <c r="I32" s="22" t="str">
-        <f t="array" ref="I32">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A32),0)),"")</f>
-        <v>정은찬</v>
-      </c>
-      <c r="J32" s="22" t="str">
-        <f t="array" ref="J32">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A32),0)),"")</f>
-        <v>최한성</v>
-      </c>
-      <c r="K32" s="22" t="str">
-        <f t="array" ref="K32">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A32),0)),"")</f>
-        <v>한장윤</v>
-      </c>
-      <c r="L32" s="22" t="str">
-        <f t="array" ref="L32">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A32),0)),"")</f>
-        <v>정유찬</v>
-      </c>
-      <c r="M32" s="22" t="str">
-        <f t="array" ref="M32">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A32),0)),"")</f>
+      <c r="A32" s="17">
+        <v>31</v>
+      </c>
+      <c r="B32" s="18" t="str">
+        <f t="array" ref="B32">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A36),0)),"")</f>
         <v/>
       </c>
-      <c r="N32" s="22" t="str">
-        <f t="array" ref="N32">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A32),0)),"")</f>
-        <v>현재민</v>
-      </c>
-      <c r="O32" s="23" t="str">
-        <f t="array" ref="O32">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A32),0)),"")</f>
-        <v>허진성</v>
+      <c r="C32" s="19" t="str">
+        <f t="array" ref="C32">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A36),0)),"")</f>
+        <v/>
+      </c>
+      <c r="D32" s="19" t="str">
+        <f t="array" ref="D32">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A36),0)),"")</f>
+        <v/>
+      </c>
+      <c r="E32" s="19" t="str">
+        <f t="array" ref="E32">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A36),0)),"")</f>
+        <v/>
+      </c>
+      <c r="F32" s="19" t="str">
+        <f t="array" ref="F32">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A36),0)),"")</f>
+        <v/>
+      </c>
+      <c r="G32" s="19" t="str">
+        <f t="array" ref="G32">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A36),0)),"")</f>
+        <v/>
+      </c>
+      <c r="H32" s="19" t="str">
+        <f t="array" ref="H32">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A36),0)),"")</f>
+        <v/>
+      </c>
+      <c r="I32" s="19" t="str">
+        <f t="array" ref="I32">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A36),0)),"")</f>
+        <v/>
+      </c>
+      <c r="J32" s="19" t="str">
+        <f t="array" ref="J32">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A36),0)),"")</f>
+        <v/>
+      </c>
+      <c r="K32" s="19" t="str">
+        <f t="array" ref="K32">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A36),0)),"")</f>
+        <v/>
+      </c>
+      <c r="L32" s="19" t="str">
+        <f t="array" ref="L32">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A36),0)),"")</f>
+        <v/>
+      </c>
+      <c r="M32" s="19" t="str">
+        <f t="array" ref="M32">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A36),0)),"")</f>
+        <v/>
+      </c>
+      <c r="N32" s="19" t="str">
+        <f t="array" ref="N32">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A36),0)),"")</f>
+        <v/>
+      </c>
+      <c r="O32" s="20" t="str">
+        <f t="array" ref="O32">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A36),0)),"")</f>
+        <v>최홍서</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20">
-        <v>28</v>
-      </c>
-      <c r="B33" s="21" t="str">
-        <f t="array" ref="B33">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A33),0)),"")</f>
+      <c r="A33" s="9">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10" t="str">
+        <f t="array" ref="B33">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!B$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A33),0)),"")</f>
         <v/>
       </c>
-      <c r="C33" s="22" t="str">
-        <f t="array" ref="C33">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A33),0)),"")</f>
+      <c r="C33" s="11" t="str">
+        <f t="array" ref="C33">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!C$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A33),0)),"")</f>
         <v/>
       </c>
-      <c r="D33" s="22" t="str">
-        <f t="array" ref="D33">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A33),0)),"")</f>
+      <c r="D33" s="11" t="str">
+        <f t="array" ref="D33">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!D$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A33),0)),"")</f>
         <v/>
       </c>
-      <c r="E33" s="22" t="str">
-        <f t="array" ref="E33">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A33),0)),"")</f>
-        <v>허준범</v>
-      </c>
-      <c r="F33" s="22" t="str">
-        <f t="array" ref="F33">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A33),0)),"")</f>
+      <c r="E33" s="11" t="str">
+        <f t="array" ref="E33">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!E$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A33),0)),"")</f>
         <v/>
       </c>
-      <c r="G33" s="22" t="str">
-        <f t="array" ref="G33">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A33),0)),"")</f>
-        <v>최지호</v>
-      </c>
-      <c r="H33" s="22" t="str">
-        <f t="array" ref="H33">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A33),0)),"")</f>
-        <v>황민철</v>
-      </c>
-      <c r="I33" s="22" t="str">
-        <f t="array" ref="I33">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A33),0)),"")</f>
-        <v>최예성</v>
-      </c>
-      <c r="J33" s="22" t="str">
-        <f t="array" ref="J33">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A33),0)),"")</f>
-        <v>최혁준</v>
-      </c>
-      <c r="K33" s="22" t="str">
-        <f t="array" ref="K33">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A33),0)),"")</f>
-        <v>허선유</v>
-      </c>
-      <c r="L33" s="22" t="str">
-        <f t="array" ref="L33">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A33),0)),"")</f>
-        <v>조윤호</v>
-      </c>
-      <c r="M33" s="22" t="str">
-        <f t="array" ref="M33">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A33),0)),"")</f>
-        <v>차승민</v>
-      </c>
-      <c r="N33" s="22" t="str">
-        <f t="array" ref="N33">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A33),0)),"")</f>
-        <v>황태경</v>
-      </c>
-      <c r="O33" s="23" t="str">
-        <f t="array" ref="O33">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A33),0)),"")</f>
-        <v>황민준</v>
+      <c r="F33" s="11" t="str">
+        <f t="array" ref="F33">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!F$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A33),0)),"")</f>
+        <v/>
+      </c>
+      <c r="G33" s="11" t="str">
+        <f t="array" ref="G33">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!G$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A33),0)),"")</f>
+        <v/>
+      </c>
+      <c r="H33" s="11" t="str">
+        <f t="array" ref="H33">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!H$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A33),0)),"")</f>
+        <v/>
+      </c>
+      <c r="I33" s="11" t="str">
+        <f t="array" ref="I33">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!I$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A33),0)),"")</f>
+        <v/>
+      </c>
+      <c r="J33" s="11" t="str">
+        <f t="array" ref="J33">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!J$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A33),0)),"")</f>
+        <v/>
+      </c>
+      <c r="K33" s="11" t="str">
+        <f t="array" ref="K33">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!K$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A33),0)),"")</f>
+        <v/>
+      </c>
+      <c r="L33" s="11" t="str">
+        <f t="array" ref="L33">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!L$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A33),0)),"")</f>
+        <v/>
+      </c>
+      <c r="M33" s="11" t="str">
+        <f t="array" ref="M33">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!M$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A33),0)),"")</f>
+        <v/>
+      </c>
+      <c r="N33" s="11" t="str">
+        <f t="array" ref="N33">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!N$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A33),0)),"")</f>
+        <v/>
+      </c>
+      <c r="O33" s="12" t="str">
+        <f t="array" ref="O33">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!O$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A33),0)),"")</f>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="20">
-        <v>29</v>
-      </c>
-      <c r="B34" s="21" t="str">
-        <f t="array" ref="B34">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A34),0)),"")</f>
+      <c r="A34" s="9">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10" t="str">
+        <f t="array" ref="B34">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!B$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A34),0)),"")</f>
         <v/>
       </c>
-      <c r="C34" s="22" t="str">
-        <f t="array" ref="C34">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A34),0)),"")</f>
+      <c r="C34" s="11" t="str">
+        <f t="array" ref="C34">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!C$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A34),0)),"")</f>
         <v/>
       </c>
-      <c r="D34" s="22" t="str">
-        <f t="array" ref="D34">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A34),0)),"")</f>
+      <c r="D34" s="11" t="str">
+        <f t="array" ref="D34">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!D$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A34),0)),"")</f>
         <v/>
       </c>
-      <c r="E34" s="22" t="str">
-        <f t="array" ref="E34">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A34),0)),"")</f>
-        <v>홍성오</v>
-      </c>
-      <c r="F34" s="22" t="str">
-        <f t="array" ref="F34">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A34),0)),"")</f>
-        <v>홍석주</v>
-      </c>
-      <c r="G34" s="22" t="str">
-        <f t="array" ref="G34">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A34),0)),"")</f>
-        <v>황태용</v>
-      </c>
-      <c r="H34" s="22" t="str">
-        <f t="array" ref="H34">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A34),0)),"")</f>
-        <v>조영준</v>
-      </c>
-      <c r="I34" s="22" t="str">
-        <f t="array" ref="I34">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A34),0)),"")</f>
-        <v>최지율</v>
-      </c>
-      <c r="J34" s="22" t="str">
-        <f t="array" ref="J34">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A34),0)),"")</f>
-        <v>최현준</v>
-      </c>
-      <c r="K34" s="22" t="str">
-        <f t="array" ref="K34">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A34),0)),"")</f>
-        <v>홍정우</v>
-      </c>
-      <c r="L34" s="22" t="str">
-        <f t="array" ref="L34">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A34),0)),"")</f>
-        <v>황태상</v>
-      </c>
-      <c r="M34" s="22" t="str">
-        <f t="array" ref="M34">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A34),0)),"")</f>
-        <v>차재원</v>
-      </c>
-      <c r="N34" s="22" t="str">
-        <f t="array" ref="N34">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A34),0)),"")</f>
-        <v>김종현</v>
-      </c>
-      <c r="O34" s="23" t="str">
-        <f t="array" ref="O34">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A34),0)),"")</f>
-        <v>송은호</v>
+      <c r="E34" s="11" t="str">
+        <f t="array" ref="E34">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!E$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A34),0)),"")</f>
+        <v/>
+      </c>
+      <c r="F34" s="11" t="str">
+        <f t="array" ref="F34">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!F$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A34),0)),"")</f>
+        <v/>
+      </c>
+      <c r="G34" s="11" t="str">
+        <f t="array" ref="G34">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!G$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A34),0)),"")</f>
+        <v/>
+      </c>
+      <c r="H34" s="11" t="str">
+        <f t="array" ref="H34">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!H$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A34),0)),"")</f>
+        <v/>
+      </c>
+      <c r="I34" s="11" t="str">
+        <f t="array" ref="I34">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!I$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A34),0)),"")</f>
+        <v/>
+      </c>
+      <c r="J34" s="11" t="str">
+        <f t="array" ref="J34">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!J$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A34),0)),"")</f>
+        <v/>
+      </c>
+      <c r="K34" s="11" t="str">
+        <f t="array" ref="K34">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!K$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A34),0)),"")</f>
+        <v/>
+      </c>
+      <c r="L34" s="11" t="str">
+        <f t="array" ref="L34">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!L$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A34),0)),"")</f>
+        <v/>
+      </c>
+      <c r="M34" s="11" t="str">
+        <f t="array" ref="M34">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!M$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A34),0)),"")</f>
+        <v/>
+      </c>
+      <c r="N34" s="11" t="str">
+        <f t="array" ref="N34">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!N$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A34),0)),"")</f>
+        <v/>
+      </c>
+      <c r="O34" s="12" t="str">
+        <f t="array" ref="O34">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!O$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A34),0)),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="24">
-        <v>30</v>
-      </c>
-      <c r="B35" s="25" t="str">
-        <f t="array" ref="B35">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A35),0)),"")</f>
+    <row r="35" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10" t="str">
+        <f t="array" ref="B35">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!B$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A35),0)),"")</f>
         <v/>
       </c>
-      <c r="C35" s="26" t="str">
-        <f t="array" ref="C35">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A35),0)),"")</f>
+      <c r="C35" s="11" t="str">
+        <f t="array" ref="C35">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!C$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A35),0)),"")</f>
         <v/>
       </c>
-      <c r="D35" s="26" t="str">
-        <f t="array" ref="D35">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A35),0)),"")</f>
+      <c r="D35" s="11" t="str">
+        <f t="array" ref="D35">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!D$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A35),0)),"")</f>
         <v/>
       </c>
-      <c r="E35" s="26" t="str">
-        <f t="array" ref="E35">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A35),0)),"")</f>
-        <v>송채윤</v>
-      </c>
-      <c r="F35" s="26" t="str">
-        <f t="array" ref="F35">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A35),0)),"")</f>
-        <v>장희동</v>
-      </c>
-      <c r="G35" s="26" t="str">
-        <f t="array" ref="G35">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A35),0)),"")</f>
-        <v>유준상</v>
-      </c>
-      <c r="H35" s="26" t="str">
-        <f t="array" ref="H35">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A35),0)),"")</f>
+      <c r="E35" s="11" t="str">
+        <f t="array" ref="E35">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!E$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A35),0)),"")</f>
         <v/>
       </c>
-      <c r="I35" s="26" t="str">
-        <f t="array" ref="I35">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A35),0)),"")</f>
+      <c r="F35" s="11" t="str">
+        <f t="array" ref="F35">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!F$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A35),0)),"")</f>
         <v/>
       </c>
-      <c r="J35" s="26" t="str">
-        <f t="array" ref="J35">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A35),0)),"")</f>
-        <v>박찬우</v>
-      </c>
-      <c r="K35" s="26" t="str">
-        <f t="array" ref="K35">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A35),0)),"")</f>
+      <c r="G35" s="11" t="str">
+        <f t="array" ref="G35">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!G$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A35),0)),"")</f>
         <v/>
       </c>
-      <c r="L35" s="26" t="str">
-        <f t="array" ref="L35">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A35),0)),"")</f>
-        <v>김정윤</v>
-      </c>
-      <c r="M35" s="26" t="str">
-        <f t="array" ref="M35">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A35),0)),"")</f>
+      <c r="H35" s="11" t="str">
+        <f t="array" ref="H35">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!H$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A35),0)),"")</f>
         <v/>
       </c>
-      <c r="N35" s="26" t="str">
-        <f t="array" ref="N35">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A35),0)),"")</f>
-        <v>이현우</v>
-      </c>
-      <c r="O35" s="27" t="str">
-        <f t="array" ref="O35">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A35),0)),"")</f>
-        <v>서영민</v>
+      <c r="I35" s="11" t="str">
+        <f t="array" ref="I35">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!I$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A35),0)),"")</f>
+        <v/>
+      </c>
+      <c r="J35" s="11" t="str">
+        <f t="array" ref="J35">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!J$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A35),0)),"")</f>
+        <v/>
+      </c>
+      <c r="K35" s="11" t="str">
+        <f t="array" ref="K35">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!K$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A35),0)),"")</f>
+        <v/>
+      </c>
+      <c r="L35" s="11" t="str">
+        <f t="array" ref="L35">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!L$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A35),0)),"")</f>
+        <v/>
+      </c>
+      <c r="M35" s="11" t="str">
+        <f t="array" ref="M35">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!M$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A35),0)),"")</f>
+        <v/>
+      </c>
+      <c r="N35" s="11" t="str">
+        <f t="array" ref="N35">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!N$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A35),0)),"")</f>
+        <v/>
+      </c>
+      <c r="O35" s="12" t="str">
+        <f t="array" ref="O35">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!O$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A35),0)),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="28">
-        <v>31</v>
-      </c>
-      <c r="B36" s="29" t="str">
-        <f t="array" ref="B36">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!B$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A36),0)),"")</f>
+    <row r="36" spans="1:15" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="13">
+        <v>35</v>
+      </c>
+      <c r="B36" s="14" t="str">
+        <f t="array" ref="B36">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!B$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A36),0)),"")</f>
         <v/>
       </c>
-      <c r="C36" s="30" t="str">
-        <f t="array" ref="C36">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!C$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A36),0)),"")</f>
+      <c r="C36" s="15" t="str">
+        <f t="array" ref="C36">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!C$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A36),0)),"")</f>
         <v/>
       </c>
-      <c r="D36" s="30" t="str">
-        <f t="array" ref="D36">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!D$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A36),0)),"")</f>
+      <c r="D36" s="15" t="str">
+        <f t="array" ref="D36">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!D$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A36),0)),"")</f>
         <v/>
       </c>
-      <c r="E36" s="30" t="str">
-        <f t="array" ref="E36">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!E$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A36),0)),"")</f>
+      <c r="E36" s="15" t="str">
+        <f t="array" ref="E36">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!E$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A36),0)),"")</f>
         <v/>
       </c>
-      <c r="F36" s="30" t="str">
-        <f t="array" ref="F36">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!F$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A36),0)),"")</f>
+      <c r="F36" s="15" t="str">
+        <f t="array" ref="F36">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!F$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A36),0)),"")</f>
         <v/>
       </c>
-      <c r="G36" s="30" t="str">
-        <f t="array" ref="G36">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!G$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A36),0)),"")</f>
+      <c r="G36" s="15" t="str">
+        <f t="array" ref="G36">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!G$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A36),0)),"")</f>
         <v/>
       </c>
-      <c r="H36" s="30" t="str">
-        <f t="array" ref="H36">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!H$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A36),0)),"")</f>
+      <c r="H36" s="15" t="str">
+        <f t="array" ref="H36">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!H$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A36),0)),"")</f>
         <v/>
       </c>
-      <c r="I36" s="30" t="str">
-        <f t="array" ref="I36">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!I$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A36),0)),"")</f>
+      <c r="I36" s="15" t="str">
+        <f t="array" ref="I36">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!I$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A36),0)),"")</f>
         <v/>
       </c>
-      <c r="J36" s="30" t="str">
-        <f t="array" ref="J36">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!J$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A36),0)),"")</f>
+      <c r="J36" s="15" t="str">
+        <f t="array" ref="J36">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!J$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A36),0)),"")</f>
         <v/>
       </c>
-      <c r="K36" s="30" t="str">
-        <f t="array" ref="K36">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!K$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A36),0)),"")</f>
+      <c r="K36" s="15" t="str">
+        <f t="array" ref="K36">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!K$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A36),0)),"")</f>
         <v/>
       </c>
-      <c r="L36" s="30" t="str">
-        <f t="array" ref="L36">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!L$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A36),0)),"")</f>
+      <c r="L36" s="15" t="str">
+        <f t="array" ref="L36">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!L$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A36),0)),"")</f>
         <v/>
       </c>
-      <c r="M36" s="30" t="str">
-        <f t="array" ref="M36">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!M$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A36),0)),"")</f>
+      <c r="M36" s="15" t="str">
+        <f t="array" ref="M36">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!M$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A36),0)),"")</f>
         <v/>
       </c>
-      <c r="N36" s="30" t="str">
-        <f t="array" ref="N36">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!N$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A36),0)),"")</f>
+      <c r="N36" s="15" t="str">
+        <f t="array" ref="N36">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!N$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A36),0)),"")</f>
         <v/>
       </c>
-      <c r="O36" s="31" t="str">
-        <f t="array" ref="O36">IFERROR(INDEX([3]원본데이터!$E$2:$E$1245,MATCH(1,([3]원본데이터!$B$2:$B$1245=[3]학년별명렬!$A$2)*([3]원본데이터!$C$2:$C$1245=[3]학년별명렬!O$2)*([3]원본데이터!$D$2:$D$1245=[3]학년별명렬!$A36),0)),"")</f>
-        <v>최홍서</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="20">
-        <v>32</v>
-      </c>
-      <c r="B37" s="21" t="str">
-        <f t="array" ref="B37">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!B$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A37),0)),"")</f>
-        <v/>
-      </c>
-      <c r="C37" s="22" t="str">
-        <f t="array" ref="C37">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!C$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A37),0)),"")</f>
-        <v/>
-      </c>
-      <c r="D37" s="22" t="str">
-        <f t="array" ref="D37">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!D$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A37),0)),"")</f>
-        <v/>
-      </c>
-      <c r="E37" s="22" t="str">
-        <f t="array" ref="E37">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!E$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A37),0)),"")</f>
-        <v/>
-      </c>
-      <c r="F37" s="22" t="str">
-        <f t="array" ref="F37">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!F$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A37),0)),"")</f>
-        <v/>
-      </c>
-      <c r="G37" s="22" t="str">
-        <f t="array" ref="G37">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!G$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A37),0)),"")</f>
-        <v/>
-      </c>
-      <c r="H37" s="22" t="str">
-        <f t="array" ref="H37">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!H$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A37),0)),"")</f>
-        <v/>
-      </c>
-      <c r="I37" s="22" t="str">
-        <f t="array" ref="I37">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!I$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A37),0)),"")</f>
-        <v/>
-      </c>
-      <c r="J37" s="22" t="str">
-        <f t="array" ref="J37">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!J$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A37),0)),"")</f>
-        <v/>
-      </c>
-      <c r="K37" s="22" t="str">
-        <f t="array" ref="K37">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!K$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A37),0)),"")</f>
-        <v/>
-      </c>
-      <c r="L37" s="22" t="str">
-        <f t="array" ref="L37">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!L$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A37),0)),"")</f>
-        <v/>
-      </c>
-      <c r="M37" s="22" t="str">
-        <f t="array" ref="M37">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!M$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A37),0)),"")</f>
-        <v/>
-      </c>
-      <c r="N37" s="22" t="str">
-        <f t="array" ref="N37">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!N$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A37),0)),"")</f>
-        <v/>
-      </c>
-      <c r="O37" s="23" t="str">
-        <f t="array" ref="O37">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!O$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A37),0)),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="20">
-        <v>33</v>
-      </c>
-      <c r="B38" s="21" t="str">
-        <f t="array" ref="B38">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!B$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A38),0)),"")</f>
-        <v/>
-      </c>
-      <c r="C38" s="22" t="str">
-        <f t="array" ref="C38">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!C$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A38),0)),"")</f>
-        <v/>
-      </c>
-      <c r="D38" s="22" t="str">
-        <f t="array" ref="D38">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!D$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A38),0)),"")</f>
-        <v/>
-      </c>
-      <c r="E38" s="22" t="str">
-        <f t="array" ref="E38">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!E$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A38),0)),"")</f>
-        <v/>
-      </c>
-      <c r="F38" s="22" t="str">
-        <f t="array" ref="F38">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!F$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A38),0)),"")</f>
-        <v/>
-      </c>
-      <c r="G38" s="22" t="str">
-        <f t="array" ref="G38">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!G$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A38),0)),"")</f>
-        <v/>
-      </c>
-      <c r="H38" s="22" t="str">
-        <f t="array" ref="H38">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!H$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A38),0)),"")</f>
-        <v/>
-      </c>
-      <c r="I38" s="22" t="str">
-        <f t="array" ref="I38">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!I$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A38),0)),"")</f>
-        <v/>
-      </c>
-      <c r="J38" s="22" t="str">
-        <f t="array" ref="J38">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!J$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A38),0)),"")</f>
-        <v/>
-      </c>
-      <c r="K38" s="22" t="str">
-        <f t="array" ref="K38">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!K$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A38),0)),"")</f>
-        <v/>
-      </c>
-      <c r="L38" s="22" t="str">
-        <f t="array" ref="L38">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!L$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A38),0)),"")</f>
-        <v/>
-      </c>
-      <c r="M38" s="22" t="str">
-        <f t="array" ref="M38">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!M$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A38),0)),"")</f>
-        <v/>
-      </c>
-      <c r="N38" s="22" t="str">
-        <f t="array" ref="N38">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!N$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A38),0)),"")</f>
-        <v/>
-      </c>
-      <c r="O38" s="23" t="str">
-        <f t="array" ref="O38">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!O$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A38),0)),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="20">
-        <v>34</v>
-      </c>
-      <c r="B39" s="21" t="str">
-        <f t="array" ref="B39">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!B$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A39),0)),"")</f>
-        <v/>
-      </c>
-      <c r="C39" s="22" t="str">
-        <f t="array" ref="C39">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!C$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A39),0)),"")</f>
-        <v/>
-      </c>
-      <c r="D39" s="22" t="str">
-        <f t="array" ref="D39">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!D$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A39),0)),"")</f>
-        <v/>
-      </c>
-      <c r="E39" s="22" t="str">
-        <f t="array" ref="E39">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!E$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A39),0)),"")</f>
-        <v/>
-      </c>
-      <c r="F39" s="22" t="str">
-        <f t="array" ref="F39">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!F$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A39),0)),"")</f>
-        <v/>
-      </c>
-      <c r="G39" s="22" t="str">
-        <f t="array" ref="G39">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!G$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A39),0)),"")</f>
-        <v/>
-      </c>
-      <c r="H39" s="22" t="str">
-        <f t="array" ref="H39">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!H$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A39),0)),"")</f>
-        <v/>
-      </c>
-      <c r="I39" s="22" t="str">
-        <f t="array" ref="I39">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!I$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A39),0)),"")</f>
-        <v/>
-      </c>
-      <c r="J39" s="22" t="str">
-        <f t="array" ref="J39">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!J$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A39),0)),"")</f>
-        <v/>
-      </c>
-      <c r="K39" s="22" t="str">
-        <f t="array" ref="K39">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!K$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A39),0)),"")</f>
-        <v/>
-      </c>
-      <c r="L39" s="22" t="str">
-        <f t="array" ref="L39">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!L$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A39),0)),"")</f>
-        <v/>
-      </c>
-      <c r="M39" s="22" t="str">
-        <f t="array" ref="M39">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!M$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A39),0)),"")</f>
-        <v/>
-      </c>
-      <c r="N39" s="22" t="str">
-        <f t="array" ref="N39">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!N$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A39),0)),"")</f>
-        <v/>
-      </c>
-      <c r="O39" s="23" t="str">
-        <f t="array" ref="O39">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!O$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A39),0)),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="24">
-        <v>35</v>
-      </c>
-      <c r="B40" s="25" t="str">
-        <f t="array" ref="B40">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!B$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A40),0)),"")</f>
-        <v/>
-      </c>
-      <c r="C40" s="26" t="str">
-        <f t="array" ref="C40">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!C$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A40),0)),"")</f>
-        <v/>
-      </c>
-      <c r="D40" s="26" t="str">
-        <f t="array" ref="D40">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!D$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A40),0)),"")</f>
-        <v/>
-      </c>
-      <c r="E40" s="26" t="str">
-        <f t="array" ref="E40">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!E$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A40),0)),"")</f>
-        <v/>
-      </c>
-      <c r="F40" s="26" t="str">
-        <f t="array" ref="F40">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!F$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A40),0)),"")</f>
-        <v/>
-      </c>
-      <c r="G40" s="26" t="str">
-        <f t="array" ref="G40">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!G$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A40),0)),"")</f>
-        <v/>
-      </c>
-      <c r="H40" s="26" t="str">
-        <f t="array" ref="H40">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!H$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A40),0)),"")</f>
-        <v/>
-      </c>
-      <c r="I40" s="26" t="str">
-        <f t="array" ref="I40">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!I$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A40),0)),"")</f>
-        <v/>
-      </c>
-      <c r="J40" s="26" t="str">
-        <f t="array" ref="J40">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!J$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A40),0)),"")</f>
-        <v/>
-      </c>
-      <c r="K40" s="26" t="str">
-        <f t="array" ref="K40">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!K$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A40),0)),"")</f>
-        <v/>
-      </c>
-      <c r="L40" s="26" t="str">
-        <f t="array" ref="L40">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!L$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A40),0)),"")</f>
-        <v/>
-      </c>
-      <c r="M40" s="26" t="str">
-        <f t="array" ref="M40">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!M$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A40),0)),"")</f>
-        <v/>
-      </c>
-      <c r="N40" s="26" t="str">
-        <f t="array" ref="N40">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!N$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A40),0)),"")</f>
-        <v/>
-      </c>
-      <c r="O40" s="27" t="str">
-        <f t="array" ref="O40">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$2)*([2]원본데이터!$C$2:$C$1250=학년별명렬!O$2)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A40),0)),"")</f>
+      <c r="O36" s="16" t="str">
+        <f t="array" ref="O36">IFERROR(INDEX([2]원본데이터!$E$2:$E$1250,MATCH(1,([2]원본데이터!$B$2:$B$1250=학년별명렬!$A$1)*([2]원본데이터!$C$2:$C$1250=학년별명렬!O$1)*([2]원본데이터!$D$2:$D$1250=학년별명렬!$A36),0)),"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B5:O5"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B2:O2">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>B3=0</formula>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B1:O1">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{AD7DE574-BE7C-4343-A4B7-8691338EC2E8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{AD7DE574-BE7C-4343-A4B7-8691338EC2E8}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
   </dataValidations>
